--- a/generic_heat_repartition/output/ethanol_heat.xlsx
+++ b/generic_heat_repartition/output/ethanol_heat.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoine\Documents\GitHub\Industrial-decarb\generic_heat_repartition\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22357F11-8B02-4E72-A9AD-3BB7CA72C5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1039,8 +1045,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1103,13 +1109,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1147,7 +1161,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1181,6 +1195,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1215,9 +1230,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1390,14 +1406,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1483,7 +1501,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1533,7 +1551,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q2">
-        <v>3724901.862956444</v>
+        <v>3724901.8629564438</v>
       </c>
       <c r="R2">
         <v>0.8</v>
@@ -1548,22 +1566,22 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>800915.5456509051</v>
+        <v>800915.54565090511</v>
       </c>
       <c r="Z2">
-        <v>776187.6448741349</v>
+        <v>776187.64487413492</v>
       </c>
       <c r="AA2">
-        <v>622851.2062581751</v>
+        <v>622851.20625817508</v>
       </c>
       <c r="AB2">
-        <v>494992.7157818303</v>
+        <v>494992.71578183031</v>
       </c>
       <c r="AC2">
-        <v>284974.3778001097</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+        <v>284974.37780010968</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1613,7 +1631,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q3">
-        <v>1547671.539786687</v>
+        <v>1547671.5397866869</v>
       </c>
       <c r="R3">
         <v>0.8</v>
@@ -1622,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1238137.23182935</v>
+        <v>1238137.2318293501</v>
       </c>
       <c r="U3" t="s">
         <v>334</v>
@@ -1634,22 +1652,22 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>332774.9941827463</v>
+        <v>332774.99418274628</v>
       </c>
       <c r="Z3">
-        <v>322500.718596731</v>
+        <v>322500.71859673102</v>
       </c>
       <c r="AA3">
-        <v>258790.4650681148</v>
+        <v>258790.46506811481</v>
       </c>
       <c r="AB3">
-        <v>205666.1267336636</v>
+        <v>205666.12673366361</v>
       </c>
       <c r="AC3">
-        <v>118404.9272480944</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
+        <v>118404.92724809441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1699,7 +1717,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q4">
-        <v>732511.8376337911</v>
+        <v>732511.83763379115</v>
       </c>
       <c r="R4">
         <v>0.8</v>
@@ -1708,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>586009.4701070329</v>
+        <v>586009.47010703292</v>
       </c>
       <c r="U4" t="s">
         <v>334</v>
@@ -1720,22 +1738,22 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>157502.1677667956</v>
+        <v>157502.16776679561</v>
       </c>
       <c r="Z4">
-        <v>152639.3604485804</v>
+        <v>152639.36044858041</v>
       </c>
       <c r="AA4">
         <v>122485.3428236303</v>
       </c>
       <c r="AB4">
-        <v>97341.63132150396</v>
+        <v>97341.631321503955</v>
       </c>
       <c r="AC4">
-        <v>56040.96774652276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
+        <v>56040.967746522758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1785,7 +1803,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q5">
-        <v>2822769.676830244</v>
+        <v>2822769.6768302438</v>
       </c>
       <c r="R5">
         <v>0.8</v>
@@ -1794,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>2258215.741464195</v>
+        <v>2258215.7414641948</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>606942.1958330289</v>
+        <v>606942.19583302888</v>
       </c>
       <c r="Z5">
-        <v>588203.1334221516</v>
+        <v>588203.13342215156</v>
       </c>
       <c r="AA5">
-        <v>472003.172939237</v>
+        <v>472003.17293923697</v>
       </c>
       <c r="AB5">
-        <v>375110.6686208931</v>
+        <v>375110.66862089309</v>
       </c>
       <c r="AC5">
-        <v>215956.5706488847</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+        <v>215956.57064888469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1859,13 +1877,13 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>91981.29999999999</v>
+        <v>91981.299999999988</v>
       </c>
       <c r="P6">
         <v>53.1145</v>
       </c>
       <c r="Q6">
-        <v>1731754.98216118</v>
+        <v>1731754.9821611801</v>
       </c>
       <c r="R6">
         <v>0.8</v>
@@ -1880,22 +1898,22 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>372355.9807748721</v>
+        <v>372355.98077487212</v>
       </c>
       <c r="Z6">
-        <v>360859.6603497829</v>
+        <v>360859.66034978291</v>
       </c>
       <c r="AA6">
-        <v>289571.5697397175</v>
+        <v>289571.56973971752</v>
       </c>
       <c r="AB6">
         <v>230128.5062603812</v>
       </c>
       <c r="AC6">
-        <v>132488.2686041903</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
+        <v>132488.26860419029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1939,13 +1957,13 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>39373.2</v>
+        <v>39373.199999999997</v>
       </c>
       <c r="P7">
         <v>53.1145</v>
       </c>
       <c r="Q7">
-        <v>741289.1018460119</v>
+        <v>741289.10184601194</v>
       </c>
       <c r="R7">
         <v>0.8</v>
@@ -1954,28 +1972,28 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>593031.2814768095</v>
+        <v>593031.28147680953</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>159389.4248314081</v>
+        <v>159389.42483140811</v>
       </c>
       <c r="Z7">
-        <v>154468.3493153942</v>
+        <v>154468.34931539421</v>
       </c>
       <c r="AA7">
         <v>123953.0135981536</v>
       </c>
       <c r="AB7">
-        <v>98508.0195941049</v>
+        <v>98508.019594104902</v>
       </c>
       <c r="AC7">
         <v>56712.47413774873</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2025,7 +2043,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q8">
-        <v>1078180.157960632</v>
+        <v>1078180.1579606319</v>
       </c>
       <c r="R8">
         <v>0.8</v>
@@ -2034,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>862544.1263685058</v>
+        <v>862544.12636850576</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -2043,19 +2061,19 @@
         <v>231826.577261189</v>
       </c>
       <c r="Z8">
-        <v>224669.0378288958</v>
+        <v>224669.03782889579</v>
       </c>
       <c r="AA8">
-        <v>180285.504600222</v>
+        <v>180285.50460022199</v>
       </c>
       <c r="AB8">
-        <v>143276.6134857112</v>
+        <v>143276.61348571119</v>
       </c>
       <c r="AC8">
-        <v>82486.3931924877</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
+        <v>82486.393192487696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2120,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>20743.63502893088</v>
+        <v>20743.635028930879</v>
       </c>
       <c r="Z9">
-        <v>20103.18479478283</v>
+        <v>20103.184794782828</v>
       </c>
       <c r="AA9">
         <v>16131.78589191782</v>
@@ -2135,7 +2153,7 @@
         <v>7380.808772887448</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2185,7 +2203,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q10">
-        <v>1192785.397584464</v>
+        <v>1192785.3975844639</v>
       </c>
       <c r="R10">
         <v>0.8</v>
@@ -2194,28 +2212,28 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>954228.3180675711</v>
+        <v>954228.31806757115</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>256468.600435169</v>
+        <v>256468.60043516901</v>
       </c>
       <c r="Z10">
-        <v>248550.249819607</v>
+        <v>248550.24981960701</v>
       </c>
       <c r="AA10">
-        <v>199448.9656441474</v>
+        <v>199448.96564414739</v>
       </c>
       <c r="AB10">
-        <v>158506.2117117441</v>
+        <v>158506.21171174411</v>
       </c>
       <c r="AC10">
-        <v>91254.29045690371</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
+        <v>91254.290456903705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2265,7 +2283,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q11">
-        <v>5080396.125351834</v>
+        <v>5080396.1253518341</v>
       </c>
       <c r="R11">
         <v>0.8</v>
@@ -2280,22 +2298,22 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>1092369.244764312</v>
+        <v>1092369.2447643119</v>
       </c>
       <c r="Z11">
         <v>1058642.844468043</v>
       </c>
       <c r="AA11">
-        <v>849507.173977794</v>
+        <v>849507.17397779401</v>
       </c>
       <c r="AB11">
-        <v>675120.893880258</v>
+        <v>675120.89388025797</v>
       </c>
       <c r="AC11">
-        <v>388676.7431910611</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
+        <v>388676.74319106108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2345,7 +2363,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q12">
-        <v>1448088.563386646</v>
+        <v>1448088.5633866461</v>
       </c>
       <c r="R12">
         <v>0.8</v>
@@ -2360,22 +2378,22 @@
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>311363.0062122291</v>
+        <v>311363.00621222908</v>
       </c>
       <c r="Z12">
-        <v>301749.8159514312</v>
+        <v>301749.81595143123</v>
       </c>
       <c r="AA12">
-        <v>242138.918462182</v>
+        <v>242138.91846218199</v>
       </c>
       <c r="AB12">
-        <v>192432.7987837103</v>
+        <v>192432.79878371031</v>
       </c>
       <c r="AC12">
         <v>110786.3112997642</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2440,22 +2458,22 @@
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>747352.5831354301</v>
+        <v>747352.58313543012</v>
       </c>
       <c r="Z13">
-        <v>724278.414302789</v>
+        <v>724278.41430278902</v>
       </c>
       <c r="AA13">
-        <v>581196.6822641228</v>
+        <v>581196.68226412276</v>
       </c>
       <c r="AB13">
-        <v>461889.005378372</v>
+        <v>461889.00537837198</v>
       </c>
       <c r="AC13">
-        <v>265916.0988106902</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
+        <v>265916.09881069022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2499,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>88974.10000000001</v>
+        <v>88974.1</v>
       </c>
       <c r="P14">
         <v>53.1145</v>
       </c>
       <c r="Q14">
-        <v>1675137.674269738</v>
+        <v>1675137.6742697379</v>
       </c>
       <c r="R14">
         <v>0.8</v>
@@ -2520,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>360182.3225923264</v>
+        <v>360182.32259232638</v>
       </c>
       <c r="Z14">
-        <v>349061.8582899744</v>
+        <v>349061.85828997439</v>
       </c>
       <c r="AA14">
         <v>280104.432131081</v>
@@ -2535,7 +2553,7 @@
         <v>128156.7499004264</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2579,13 +2597,13 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>72380.09999999999</v>
+        <v>72380.099999999991</v>
       </c>
       <c r="P15">
         <v>53.1145</v>
       </c>
       <c r="Q15">
-        <v>1362718.278436208</v>
+        <v>1362718.2784362079</v>
       </c>
       <c r="R15">
         <v>0.8</v>
@@ -2600,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>293006.9821157487</v>
+        <v>293006.98211574869</v>
       </c>
       <c r="Z15">
-        <v>283960.5256947153</v>
+        <v>283960.52569471532</v>
       </c>
       <c r="AA15">
         <v>227863.9155449828</v>
@@ -2615,7 +2633,7 @@
         <v>104255.0402135886</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2674,19 +2692,19 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>17041.18010552501</v>
+        <v>17041.180105525011</v>
       </c>
       <c r="X16">
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>4580.169681275543</v>
+        <v>4580.1696812755426</v>
       </c>
       <c r="Z16">
-        <v>4438.759039374083</v>
+        <v>4438.7590393740829</v>
       </c>
       <c r="AA16">
-        <v>3561.878935101887</v>
+        <v>3561.8789351018868</v>
       </c>
       <c r="AB16">
         <v>2830.698744189895</v>
@@ -2695,7 +2713,7 @@
         <v>1629.673705583604</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2754,28 +2772,28 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1298816.707302149</v>
+        <v>1298816.7073021489</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>349083.8584817693</v>
+        <v>349083.85848176928</v>
       </c>
       <c r="Z17">
-        <v>338306.054177454</v>
+        <v>338306.05417745397</v>
       </c>
       <c r="AA17">
-        <v>271473.4450108901</v>
+        <v>271473.44501089008</v>
       </c>
       <c r="AB17">
-        <v>215745.5528036495</v>
+        <v>215745.55280364951</v>
       </c>
       <c r="AC17">
         <v>124207.7968283862</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2819,13 +2837,13 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>73391.2</v>
+        <v>73391.199999999997</v>
       </c>
       <c r="P18">
         <v>53.1145</v>
       </c>
       <c r="Q18">
-        <v>1381754.511479916</v>
+        <v>1381754.5114799161</v>
       </c>
       <c r="R18">
         <v>0.8</v>
@@ -2834,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>1105403.609183933</v>
+        <v>1105403.6091839329</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -2843,19 +2861,19 @@
         <v>297100.0872595277</v>
       </c>
       <c r="Z18">
-        <v>287927.2580911879</v>
+        <v>287927.25809118792</v>
       </c>
       <c r="AA18">
-        <v>231047.0170467426</v>
+        <v>231047.01704674261</v>
       </c>
       <c r="AB18">
-        <v>183617.8356759133</v>
+        <v>183617.83567591329</v>
       </c>
       <c r="AC18">
-        <v>105711.4111105611</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29">
+        <v>105711.41111056109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2920,22 +2938,22 @@
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>296662.0752166468</v>
+        <v>296662.07521664677</v>
       </c>
       <c r="Z19">
         <v>287502.7694695894</v>
       </c>
       <c r="AA19">
-        <v>230706.3864637238</v>
+        <v>230706.38646372379</v>
       </c>
       <c r="AB19">
-        <v>183347.1295174075</v>
+        <v>183347.12951740751</v>
       </c>
       <c r="AC19">
         <v>105555.5617078785</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3000,22 +3018,22 @@
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>276289.6574181427</v>
+        <v>276289.65741814271</v>
       </c>
       <c r="Z20">
-        <v>267759.3407432039</v>
+        <v>267759.34074320388</v>
       </c>
       <c r="AA20">
         <v>214863.286564993</v>
       </c>
       <c r="AB20">
-        <v>170756.29086047</v>
+        <v>170756.29086047001</v>
       </c>
       <c r="AC20">
-        <v>98306.83602395587</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29">
+        <v>98306.836023955868</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3074,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>815007.5779683514</v>
+        <v>815007.57796835143</v>
       </c>
       <c r="U21" t="s">
         <v>335</v>
@@ -3083,7 +3101,7 @@
         <v>339</v>
       </c>
       <c r="X21">
-        <v>815007.5779683514</v>
+        <v>815007.57796835143</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -3101,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3151,7 +3169,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q22">
-        <v>235762.3624434006</v>
+        <v>235762.36244340061</v>
       </c>
       <c r="R22">
         <v>0.8</v>
@@ -3160,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>188609.8899547205</v>
+        <v>188609.88995472051</v>
       </c>
       <c r="U22" t="s">
         <v>336</v>
@@ -3190,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3240,7 +3258,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q23">
-        <v>325799.9228082727</v>
+        <v>325799.92280827271</v>
       </c>
       <c r="R23">
         <v>0.8</v>
@@ -3279,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3323,13 +3341,13 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>145412.8</v>
+        <v>145412.79999999999</v>
       </c>
       <c r="P24">
         <v>53.1145</v>
       </c>
       <c r="Q24">
-        <v>2737723.220589481</v>
+        <v>2737723.2205894808</v>
       </c>
       <c r="R24">
         <v>0.8</v>
@@ -3338,28 +3356,28 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>2190178.576471585</v>
+        <v>2190178.5764715848</v>
       </c>
       <c r="X24">
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>588655.8002683191</v>
+        <v>588655.80026831909</v>
       </c>
       <c r="Z24">
-        <v>570481.3219481668</v>
+        <v>570481.32194816682</v>
       </c>
       <c r="AA24">
-        <v>457782.3183217414</v>
+        <v>457782.31832174142</v>
       </c>
       <c r="AB24">
-        <v>363809.0617890763</v>
+        <v>363809.06178907631</v>
       </c>
       <c r="AC24">
-        <v>209450.0741442816</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29">
+        <v>209450.07414428159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3424,22 +3442,22 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>817487.9458463378</v>
+        <v>817487.94584633783</v>
       </c>
       <c r="Z25">
-        <v>792248.3798011245</v>
+        <v>792248.37980112445</v>
       </c>
       <c r="AA25">
-        <v>635739.1312190141</v>
+        <v>635739.13121901406</v>
       </c>
       <c r="AB25">
-        <v>505235.0158898819</v>
+        <v>505235.01588988188</v>
       </c>
       <c r="AC25">
-        <v>290871.016290888</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29">
+        <v>290871.01629088802</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3486,10 +3504,10 @@
         <v>4.2</v>
       </c>
       <c r="P26">
-        <v>52.32655</v>
+        <v>52.326549999999997</v>
       </c>
       <c r="Q26">
-        <v>80.26518086898525</v>
+        <v>80.265180868985254</v>
       </c>
       <c r="R26">
         <v>0.8</v>
@@ -3498,16 +3516,16 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>64.2121446951882</v>
+        <v>64.212144695188201</v>
       </c>
       <c r="X26">
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>17.25834223225108</v>
+        <v>17.258342232251081</v>
       </c>
       <c r="Z26">
-        <v>16.72549881747653</v>
+        <v>16.725498817476531</v>
       </c>
       <c r="AA26">
         <v>13.42136425712396</v>
@@ -3516,10 +3534,10 @@
         <v>10.66623533257993</v>
       </c>
       <c r="AC26">
-        <v>6.140704055756705</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29">
+        <v>6.1407040557567054</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3584,22 +3602,22 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>450766.6135232766</v>
+        <v>450766.61352327658</v>
       </c>
       <c r="Z27">
-        <v>436849.4007119989</v>
+        <v>436849.40071199893</v>
       </c>
       <c r="AA27">
-        <v>350549.481151238</v>
+        <v>350549.48115123803</v>
       </c>
       <c r="AB27">
-        <v>278588.9116814813</v>
+        <v>278588.91168148129</v>
       </c>
       <c r="AC27">
-        <v>160387.6162966235</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29">
+        <v>160387.61629662351</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3643,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <v>78278.39999999999</v>
+        <v>78278.399999999994</v>
       </c>
       <c r="P28">
         <v>53.1145</v>
@@ -3664,22 +3682,22 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>316884.3058913905</v>
+        <v>316884.30589139048</v>
       </c>
       <c r="Z28">
-        <v>307100.6480308981</v>
+        <v>307100.64803089813</v>
       </c>
       <c r="AA28">
-        <v>246432.6897392568</v>
+        <v>246432.68973925681</v>
       </c>
       <c r="AB28">
         <v>195845.1474859849</v>
       </c>
       <c r="AC28">
-        <v>112750.8491955023</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29">
+        <v>112750.84919550231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3729,7 +3747,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q29">
-        <v>3102036.167148331</v>
+        <v>3102036.1671483312</v>
       </c>
       <c r="R29">
         <v>0.8</v>
@@ -3744,22 +3762,22 @@
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>666989.1129610947</v>
+        <v>666989.11296109471</v>
       </c>
       <c r="Z29">
-        <v>646396.1294760709</v>
+        <v>646396.12947607087</v>
       </c>
       <c r="AA29">
-        <v>518700.0999353352</v>
+        <v>518700.09993533522</v>
       </c>
       <c r="AB29">
-        <v>412221.6808180556</v>
+        <v>412221.68081805558</v>
       </c>
       <c r="AC29">
-        <v>237321.9105281082</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29">
+        <v>237321.91052810819</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3809,7 +3827,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q30">
-        <v>1166365.116870158</v>
+        <v>1166365.1168701579</v>
       </c>
       <c r="R30">
         <v>0.8</v>
@@ -3818,28 +3836,28 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>933092.0934961264</v>
+        <v>933092.09349612636</v>
       </c>
       <c r="X30">
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>250787.802840208</v>
+        <v>250787.80284020799</v>
       </c>
       <c r="Z30">
-        <v>243044.8442494656</v>
+        <v>243044.84424946559</v>
       </c>
       <c r="AA30">
         <v>195031.1569828678</v>
       </c>
       <c r="AB30">
-        <v>154995.287938812</v>
+        <v>154995.28793881199</v>
       </c>
       <c r="AC30">
-        <v>89233.00148477285</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29">
+        <v>89233.001484772845</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3886,7 +3904,7 @@
         <v>109.7</v>
       </c>
       <c r="P31">
-        <v>52.32655</v>
+        <v>52.326549999999997</v>
       </c>
       <c r="Q31">
         <v>2096.450081268496</v>
@@ -3898,28 +3916,28 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <v>1677.160065014797</v>
+        <v>1677.1600650147971</v>
       </c>
       <c r="X31">
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>450.7714625899864</v>
+        <v>450.77146258998641</v>
       </c>
       <c r="Z31">
         <v>436.8541000659942</v>
       </c>
       <c r="AA31">
-        <v>350.5532521444043</v>
+        <v>350.55325214440433</v>
       </c>
       <c r="AB31">
-        <v>278.5919085676233</v>
+        <v>278.59190856762331</v>
       </c>
       <c r="AC31">
-        <v>160.3893416467882</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29">
+        <v>160.38934164678821</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3969,7 +3987,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q32">
-        <v>2095762.927260917</v>
+        <v>2095762.9272609169</v>
       </c>
       <c r="R32">
         <v>0.8</v>
@@ -3987,19 +4005,19 @@
         <v>450623.7131063292</v>
       </c>
       <c r="Z32">
-        <v>436710.9122799985</v>
+        <v>436710.91227999848</v>
       </c>
       <c r="AA32">
-        <v>350438.3512105672</v>
+        <v>350438.35121056723</v>
       </c>
       <c r="AB32">
-        <v>278500.594422745</v>
+        <v>278500.59442274499</v>
       </c>
       <c r="AC32">
-        <v>160336.770789094</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29">
+        <v>160336.77078909401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4058,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>820105.9974206667</v>
+        <v>820105.99742066674</v>
       </c>
       <c r="U33" t="s">
         <v>334</v>
@@ -4070,22 +4088,22 @@
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>220420.4521962978</v>
+        <v>220420.45219629779</v>
       </c>
       <c r="Z33">
-        <v>213615.0716531455</v>
+        <v>213615.07165314551</v>
       </c>
       <c r="AA33">
-        <v>171415.2575511085</v>
+        <v>171415.25755110849</v>
       </c>
       <c r="AB33">
-        <v>136227.2449810342</v>
+        <v>136227.24498103419</v>
       </c>
       <c r="AC33">
-        <v>78427.97103908079</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29">
+        <v>78427.971039080789</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4150,22 +4168,22 @@
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>442522.5143982585</v>
+        <v>442522.51439825853</v>
       </c>
       <c r="Z34">
-        <v>428859.8343729458</v>
+        <v>428859.83437294583</v>
       </c>
       <c r="AA34">
-        <v>344138.2595031972</v>
+        <v>344138.25950319722</v>
       </c>
       <c r="AB34">
-        <v>273493.7814430603</v>
+        <v>273493.78144306032</v>
       </c>
       <c r="AC34">
-        <v>157454.2770307898</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29">
+        <v>157454.27703078979</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4215,7 +4233,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q35">
-        <v>1640691.336640654</v>
+        <v>1640691.3366406539</v>
       </c>
       <c r="R35">
         <v>0.8</v>
@@ -4224,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <v>1312553.069312523</v>
+        <v>1312553.0693125229</v>
       </c>
       <c r="X35">
         <v>0</v>
@@ -4233,19 +4251,19 @@
         <v>352775.7899337784</v>
       </c>
       <c r="Z35">
-        <v>341883.9989362149</v>
+        <v>341883.99893621489</v>
       </c>
       <c r="AA35">
-        <v>274344.5641579627</v>
+        <v>274344.56415796268</v>
       </c>
       <c r="AB35">
-        <v>218027.2904797801</v>
+        <v>218027.29047978009</v>
       </c>
       <c r="AC35">
         <v>125521.4258047871</v>
       </c>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4289,13 +4307,13 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <v>68478.60000000001</v>
+        <v>68478.600000000006</v>
       </c>
       <c r="P36">
         <v>53.1145</v>
       </c>
       <c r="Q36">
-        <v>1289263.760366755</v>
+        <v>1289263.7603667551</v>
       </c>
       <c r="R36">
         <v>0.8</v>
@@ -4313,19 +4331,19 @@
         <v>277213.0450981902</v>
       </c>
       <c r="Z36">
-        <v>268654.2192513983</v>
+        <v>268654.21925139829</v>
       </c>
       <c r="AA36">
         <v>215581.381167457</v>
       </c>
       <c r="AB36">
-        <v>171326.9754700373</v>
+        <v>171326.97547003729</v>
       </c>
       <c r="AC36">
-        <v>98635.38730632103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29">
+        <v>98635.387306321034</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4375,7 +4393,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q37">
-        <v>1508862.92820228</v>
+        <v>1508862.9282022801</v>
       </c>
       <c r="R37">
         <v>0.8</v>
@@ -4390,22 +4408,22 @@
         <v>0</v>
       </c>
       <c r="Y37">
-        <v>324430.5004305244</v>
+        <v>324430.50043052441</v>
       </c>
       <c r="Z37">
-        <v>314413.8572686239</v>
+        <v>314413.85726862389</v>
       </c>
       <c r="AA37">
-        <v>252301.1691274782</v>
+        <v>252301.16912747821</v>
       </c>
       <c r="AB37">
-        <v>200508.9492426461</v>
+        <v>200508.94924264611</v>
       </c>
       <c r="AC37">
         <v>115435.8664925515</v>
       </c>
     </row>
-    <row r="38" spans="1:29">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4455,7 +4473,7 @@
         <v>63.113</v>
       </c>
       <c r="Q38">
-        <v>2169.125219843772</v>
+        <v>2169.1252198437719</v>
       </c>
       <c r="R38">
         <v>0.8</v>
@@ -4464,28 +4482,28 @@
         <v>0</v>
       </c>
       <c r="T38">
-        <v>1735.300175875018</v>
+        <v>1735.3001758750181</v>
       </c>
       <c r="X38">
         <v>0</v>
       </c>
       <c r="Y38">
-        <v>466.3978201179871</v>
+        <v>466.39782011798712</v>
       </c>
       <c r="Z38">
-        <v>451.9980009597679</v>
+        <v>451.99800095976792</v>
       </c>
       <c r="AA38">
-        <v>362.7054643078313</v>
+        <v>362.70546430783128</v>
       </c>
       <c r="AB38">
-        <v>288.2495225227585</v>
+        <v>288.24952252275853</v>
       </c>
       <c r="AC38">
-        <v>165.9493679666731</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29">
+        <v>165.94936796667309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4529,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>39445.3</v>
+        <v>39445.300000000003</v>
       </c>
       <c r="P39">
         <v>53.1145</v>
@@ -4544,28 +4562,28 @@
         <v>0</v>
       </c>
       <c r="T39">
-        <v>594117.2372892523</v>
+        <v>594117.23728925234</v>
       </c>
       <c r="X39">
         <v>0</v>
       </c>
       <c r="Y39">
-        <v>159681.2979209803</v>
+        <v>159681.29792098029</v>
       </c>
       <c r="Z39">
         <v>154751.2109569585</v>
       </c>
       <c r="AA39">
-        <v>124179.9957149342</v>
+        <v>124179.99571493419</v>
       </c>
       <c r="AB39">
-        <v>98688.40696959723</v>
+        <v>98688.406969597228</v>
       </c>
       <c r="AC39">
-        <v>56816.32572678216</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29">
+        <v>56816.325726782161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4624,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="T40">
-        <v>810142.6164230107</v>
+        <v>810142.61642301071</v>
       </c>
       <c r="U40" t="s">
         <v>334</v>
@@ -4636,10 +4654,10 @@
         <v>0</v>
       </c>
       <c r="Y40">
-        <v>217742.5874424556</v>
+        <v>217742.58744245561</v>
       </c>
       <c r="Z40">
-        <v>211019.8847475311</v>
+        <v>211019.88474753109</v>
       </c>
       <c r="AA40">
         <v>169332.751722393</v>
@@ -4648,10 +4666,10 @@
         <v>134572.2345942356</v>
       </c>
       <c r="AC40">
-        <v>77475.15791639528</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29">
+        <v>77475.157916395285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4701,7 +4719,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q41">
-        <v>3472034.943377044</v>
+        <v>3472034.9433770441</v>
       </c>
       <c r="R41">
         <v>0.8</v>
@@ -4716,22 +4734,22 @@
         <v>0</v>
       </c>
       <c r="Y41">
-        <v>746544.9731303033</v>
+        <v>746544.97313030332</v>
       </c>
       <c r="Z41">
-        <v>723495.7388868104</v>
+        <v>723495.73888681037</v>
       </c>
       <c r="AA41">
-        <v>580568.6249507009</v>
+        <v>580568.62495070091</v>
       </c>
       <c r="AB41">
-        <v>461389.8752617185</v>
+        <v>461389.87526171852</v>
       </c>
       <c r="AC41">
-        <v>265628.7424721026</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29">
+        <v>265628.74247210257</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4781,7 +4799,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q42">
-        <v>3684261.359892308</v>
+        <v>3684261.3598923078</v>
       </c>
       <c r="R42">
         <v>0.8</v>
@@ -4790,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <v>2947409.087913847</v>
+        <v>2947409.0879138471</v>
       </c>
       <c r="X42">
         <v>0</v>
@@ -4799,19 +4817,19 @@
         <v>792177.1649137265</v>
       </c>
       <c r="Z42">
-        <v>767719.0576413926</v>
+        <v>767719.05764139257</v>
       </c>
       <c r="AA42">
-        <v>616055.5946453781</v>
+        <v>616055.59464537806</v>
       </c>
       <c r="AB42">
-        <v>489592.1029005853</v>
+        <v>489592.10290058528</v>
       </c>
       <c r="AC42">
         <v>281865.1678127643</v>
       </c>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4855,13 +4873,13 @@
         <v>0</v>
       </c>
       <c r="O43">
-        <v>164883.2</v>
+        <v>164883.20000000001</v>
       </c>
       <c r="P43">
         <v>53.1145</v>
       </c>
       <c r="Q43">
-        <v>3104297.319940882</v>
+        <v>3104297.3199408818</v>
       </c>
       <c r="R43">
         <v>0.8</v>
@@ -4870,28 +4888,28 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>2483437.855952706</v>
+        <v>2483437.8559527062</v>
       </c>
       <c r="X43">
         <v>0</v>
       </c>
       <c r="Y43">
-        <v>667475.2982323514</v>
+        <v>667475.29823235143</v>
       </c>
       <c r="Z43">
-        <v>646867.3039996751</v>
+        <v>646867.30399967509</v>
       </c>
       <c r="AA43">
-        <v>519078.1935861721</v>
+        <v>519078.19358617213</v>
       </c>
       <c r="AB43">
-        <v>412522.1596501863</v>
+        <v>412522.15965018631</v>
       </c>
       <c r="AC43">
         <v>237494.9004843205</v>
       </c>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4941,7 +4959,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q44">
-        <v>3570640.785472894</v>
+        <v>3570640.7854728941</v>
       </c>
       <c r="R44">
         <v>0.8</v>
@@ -4950,28 +4968,28 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>2856512.628378315</v>
+        <v>2856512.6283783149</v>
       </c>
       <c r="X44">
         <v>0</v>
       </c>
       <c r="Y44">
-        <v>767746.861054374</v>
+        <v>767746.86105437402</v>
       </c>
       <c r="Z44">
-        <v>744043.0282284043</v>
+        <v>744043.02822840435</v>
       </c>
       <c r="AA44">
-        <v>597056.782210435</v>
+        <v>597056.78221043502</v>
       </c>
       <c r="AB44">
-        <v>474493.3543241814</v>
+        <v>474493.35432418139</v>
       </c>
       <c r="AC44">
-        <v>273172.6025609205</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29">
+        <v>273172.60256092052</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -5021,7 +5039,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q45">
-        <v>3196155.475435145</v>
+        <v>3196155.4754351452</v>
       </c>
       <c r="R45">
         <v>0.8</v>
@@ -5030,28 +5048,28 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>2556924.380348116</v>
+        <v>2556924.3803481162</v>
       </c>
       <c r="X45">
         <v>0</v>
       </c>
       <c r="Y45">
-        <v>687226.3218665097</v>
+        <v>687226.32186650974</v>
       </c>
       <c r="Z45">
         <v>666008.5238220368</v>
       </c>
       <c r="AA45">
-        <v>534438.0513916183</v>
+        <v>534438.05139161833</v>
       </c>
       <c r="AB45">
-        <v>424728.9558364155</v>
+        <v>424728.95583641552</v>
       </c>
       <c r="AC45">
         <v>244522.5274315353</v>
       </c>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -5101,7 +5119,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q46">
-        <v>1944548.098918374</v>
+        <v>1944548.0989183739</v>
       </c>
       <c r="R46">
         <v>0.8</v>
@@ -5116,10 +5134,10 @@
         <v>0</v>
       </c>
       <c r="Y46">
-        <v>418110.0224888935</v>
+        <v>418110.02248889348</v>
       </c>
       <c r="Z46">
-        <v>405201.0669741445</v>
+        <v>405201.06697414449</v>
       </c>
       <c r="AA46">
         <v>325153.298958876</v>
@@ -5128,10 +5146,10 @@
         <v>258406.0412501817</v>
       </c>
       <c r="AC46">
-        <v>148768.049462604</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29">
+        <v>148768.04946260399</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -5181,7 +5199,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q47">
-        <v>2847826.864603828</v>
+        <v>2847826.8646038282</v>
       </c>
       <c r="R47">
         <v>0.8</v>
@@ -5190,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <v>2278261.491683062</v>
+        <v>2278261.4916830622</v>
       </c>
       <c r="X47">
         <v>0</v>
@@ -5199,19 +5217,19 @@
         <v>612329.9058872821</v>
       </c>
       <c r="Z47">
-        <v>593424.500395216</v>
+        <v>593424.50039521605</v>
       </c>
       <c r="AA47">
         <v>476193.055036648</v>
       </c>
       <c r="AB47">
-        <v>378440.4544467288</v>
+        <v>378440.45444672881</v>
       </c>
       <c r="AC47">
-        <v>217873.5759171873</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29">
+        <v>217873.57591718729</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -5270,28 +5288,28 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <v>1310125.107079988</v>
+        <v>1310125.1070799881</v>
       </c>
       <c r="X48">
         <v>0</v>
       </c>
       <c r="Y48">
-        <v>352123.2248569539</v>
+        <v>352123.22485695389</v>
       </c>
       <c r="Z48">
-        <v>341251.5815073636</v>
+        <v>341251.58150736359</v>
       </c>
       <c r="AA48">
-        <v>273837.0812560897</v>
+        <v>273837.08125608967</v>
       </c>
       <c r="AB48">
-        <v>217623.9833379026</v>
+        <v>217623.98333790261</v>
       </c>
       <c r="AC48">
         <v>125289.2361216776</v>
       </c>
     </row>
-    <row r="49" spans="1:29">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -5341,7 +5359,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q49">
-        <v>3629502.301631381</v>
+        <v>3629502.3016313808</v>
       </c>
       <c r="R49">
         <v>0.8</v>
@@ -5356,22 +5374,22 @@
         <v>0</v>
       </c>
       <c r="Y49">
-        <v>780403.0611547698</v>
+        <v>780403.06115476985</v>
       </c>
       <c r="Z49">
-        <v>756308.4739452788</v>
+        <v>756308.47394527879</v>
       </c>
       <c r="AA49">
-        <v>606899.1801286452</v>
+        <v>606899.18012864515</v>
       </c>
       <c r="AB49">
-        <v>482315.3111998991</v>
+        <v>482315.31119989912</v>
       </c>
       <c r="AC49">
-        <v>277675.8148765122</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29">
+        <v>277675.81487651222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5421,7 +5439,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q50">
-        <v>2200141.204379219</v>
+        <v>2200141.2043792191</v>
       </c>
       <c r="R50">
         <v>0.8</v>
@@ -5436,22 +5454,22 @@
         <v>0</v>
       </c>
       <c r="Y50">
-        <v>473066.7700909108</v>
+        <v>473066.77009091078</v>
       </c>
       <c r="Z50">
-        <v>458461.0501556232</v>
+        <v>458461.05015562318</v>
       </c>
       <c r="AA50">
-        <v>367891.7333940871</v>
+        <v>367891.73339408712</v>
       </c>
       <c r="AB50">
-        <v>292371.157664486</v>
+        <v>292371.15766448597</v>
       </c>
       <c r="AC50">
         <v>168322.2521982677</v>
       </c>
     </row>
-    <row r="51" spans="1:29">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -5495,13 +5513,13 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <v>34197.10000000001</v>
+        <v>34197.100000000013</v>
       </c>
       <c r="P51">
         <v>53.1145</v>
       </c>
       <c r="Q51">
-        <v>643837.3702096416</v>
+        <v>643837.37020964164</v>
       </c>
       <c r="R51">
         <v>0.8</v>
@@ -5510,28 +5528,28 @@
         <v>0</v>
       </c>
       <c r="T51">
-        <v>515069.8961677133</v>
+        <v>515069.89616771328</v>
       </c>
       <c r="X51">
         <v>0</v>
       </c>
       <c r="Y51">
-        <v>138435.6897560307</v>
+        <v>138435.68975603071</v>
       </c>
       <c r="Z51">
         <v>134161.5512169057</v>
       </c>
       <c r="AA51">
-        <v>107657.8383600373</v>
+        <v>107657.83836003731</v>
       </c>
       <c r="AB51">
-        <v>85557.90732939071</v>
+        <v>85557.907329390713</v>
       </c>
       <c r="AC51">
-        <v>49256.90950534901</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29">
+        <v>49256.909505349009</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5590,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="T52">
-        <v>803016.8786301293</v>
+        <v>803016.87863012927</v>
       </c>
       <c r="X52">
         <v>0</v>
@@ -5599,19 +5617,19 @@
         <v>215827.3980017259</v>
       </c>
       <c r="Z52">
-        <v>209163.825903924</v>
+        <v>209163.82590392401</v>
       </c>
       <c r="AA52">
-        <v>167843.3586648492</v>
+        <v>167843.35866484919</v>
       </c>
       <c r="AB52">
-        <v>133388.5831747428</v>
+        <v>133388.58317474279</v>
       </c>
       <c r="AC52">
         <v>76793.71288488734</v>
       </c>
     </row>
-    <row r="53" spans="1:29">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5655,13 +5673,13 @@
         <v>0</v>
       </c>
       <c r="O53">
-        <v>166670.3</v>
+        <v>166670.29999999999</v>
       </c>
       <c r="P53">
         <v>53.1145</v>
       </c>
       <c r="Q53">
-        <v>3137943.499421062</v>
+        <v>3137943.4994210619</v>
       </c>
       <c r="R53">
         <v>0.8</v>
@@ -5670,28 +5688,28 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>2510354.79953685</v>
+        <v>2510354.7995368498</v>
       </c>
       <c r="X53">
         <v>0</v>
       </c>
       <c r="Y53">
-        <v>674709.7836466997</v>
+        <v>674709.78364669974</v>
       </c>
       <c r="Z53">
-        <v>653878.4279891285</v>
+        <v>653878.42798912851</v>
       </c>
       <c r="AA53">
-        <v>524704.2648885114</v>
+        <v>524704.26488851139</v>
       </c>
       <c r="AB53">
         <v>416993.3146951567</v>
       </c>
       <c r="AC53">
-        <v>240069.0083173535</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29">
+        <v>240069.00831735349</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5741,7 +5759,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q54">
-        <v>836858.108426136</v>
+        <v>836858.10842613596</v>
       </c>
       <c r="R54">
         <v>0.8</v>
@@ -5750,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="T54">
-        <v>669486.4867409088</v>
+        <v>669486.48674090882</v>
       </c>
       <c r="X54">
         <v>0</v>
@@ -5759,19 +5777,19 @@
         <v>179938.3428616091</v>
       </c>
       <c r="Z54">
-        <v>174382.8289096328</v>
+        <v>174382.82890963281</v>
       </c>
       <c r="AA54">
-        <v>139933.373140319</v>
+        <v>139933.37314031899</v>
       </c>
       <c r="AB54">
         <v>111207.9413241557</v>
       </c>
       <c r="AC54">
-        <v>64024.00050519223</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29">
+        <v>64024.000505192227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5821,7 +5839,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q55">
-        <v>1365252.426361916</v>
+        <v>1365252.4263619159</v>
       </c>
       <c r="R55">
         <v>0.8</v>
@@ -5839,19 +5857,19 @@
         <v>293551.8658585563</v>
       </c>
       <c r="Z55">
-        <v>284488.586401436</v>
+        <v>284488.58640143601</v>
       </c>
       <c r="AA55">
-        <v>228287.6574717328</v>
+        <v>228287.65747173279</v>
       </c>
       <c r="AB55">
-        <v>181424.9156395883</v>
+        <v>181424.91563958829</v>
       </c>
       <c r="AC55">
-        <v>104448.9157182197</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29">
+        <v>104448.91571821969</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -5901,7 +5919,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q56">
-        <v>12171.81748863305</v>
+        <v>12171.817488633051</v>
       </c>
       <c r="R56">
         <v>0.8</v>
@@ -5910,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <v>9737.453990906439</v>
+        <v>9737.4539909064388</v>
       </c>
       <c r="U56" t="s">
         <v>336</v>
@@ -5940,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:29">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -5990,7 +6008,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q57">
-        <v>398665.1479351213</v>
+        <v>398665.14793512132</v>
       </c>
       <c r="R57">
         <v>0.8</v>
@@ -5999,28 +6017,28 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>318932.1183480971</v>
+        <v>318932.11834809708</v>
       </c>
       <c r="X57">
         <v>0</v>
       </c>
       <c r="Y57">
-        <v>85719.60449906494</v>
+        <v>85719.604499064939</v>
       </c>
       <c r="Z57">
-        <v>83073.05095645114</v>
+        <v>83073.050956451145</v>
       </c>
       <c r="AA57">
-        <v>66661.90880191457</v>
+        <v>66661.908801914571</v>
       </c>
       <c r="AB57">
-        <v>52977.59552444841</v>
+        <v>52977.595524448407</v>
       </c>
       <c r="AC57">
-        <v>30499.95856621803</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29">
+        <v>30499.958566218029</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -6070,7 +6088,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q58">
-        <v>447480.4431934782</v>
+        <v>447480.44319347822</v>
       </c>
       <c r="R58">
         <v>0.8</v>
@@ -6079,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="T58">
-        <v>357984.3545547826</v>
+        <v>357984.35455478262</v>
       </c>
       <c r="U58" t="s">
         <v>334</v>
@@ -6094,19 +6112,19 @@
         <v>96215.70084639953</v>
       </c>
       <c r="Z58">
-        <v>93245.08513464732</v>
+        <v>93245.085134647321</v>
       </c>
       <c r="AA58">
-        <v>74824.45016653041</v>
+        <v>74824.450166530412</v>
       </c>
       <c r="AB58">
-        <v>59464.53570720204</v>
+        <v>59464.535707202042</v>
       </c>
       <c r="AC58">
-        <v>34234.58270000332</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29">
+        <v>34234.582700003317</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -6171,22 +6189,22 @@
         <v>0</v>
       </c>
       <c r="Y59">
-        <v>294322.2326955271</v>
+        <v>294322.23269552708</v>
       </c>
       <c r="Z59">
-        <v>285235.168515024</v>
+        <v>285235.16851502401</v>
       </c>
       <c r="AA59">
         <v>228886.7517411274</v>
       </c>
       <c r="AB59">
-        <v>181901.0282270529</v>
+        <v>181901.02822705291</v>
       </c>
       <c r="AC59">
         <v>104723.0205364314</v>
       </c>
     </row>
-    <row r="60" spans="1:29">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -6245,28 +6263,28 @@
         <v>0</v>
       </c>
       <c r="T60">
-        <v>2963623.116098241</v>
+        <v>2963623.1160982409</v>
       </c>
       <c r="X60">
         <v>0</v>
       </c>
       <c r="Y60">
-        <v>796535.0204050509</v>
+        <v>796535.02040505095</v>
       </c>
       <c r="Z60">
-        <v>771942.3663396448</v>
+        <v>771942.36633964477</v>
       </c>
       <c r="AA60">
-        <v>619444.58561229</v>
+        <v>619444.58561228996</v>
       </c>
       <c r="AB60">
-        <v>492285.4040062372</v>
+        <v>492285.40400623722</v>
       </c>
       <c r="AC60">
-        <v>283415.7397350182</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29">
+        <v>283415.73973501817</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -6316,7 +6334,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q61">
-        <v>3650677.310338985</v>
+        <v>3650677.3103389852</v>
       </c>
       <c r="R61">
         <v>0.8</v>
@@ -6325,28 +6343,28 @@
         <v>0</v>
       </c>
       <c r="T61">
-        <v>2920541.848271188</v>
+        <v>2920541.8482711879</v>
       </c>
       <c r="X61">
         <v>0</v>
       </c>
       <c r="Y61">
-        <v>784956.0384618692</v>
+        <v>784956.03846186923</v>
       </c>
       <c r="Z61">
-        <v>760720.8801625795</v>
+        <v>760720.88016257947</v>
       </c>
       <c r="AA61">
-        <v>610439.9122610053</v>
+        <v>610439.91226100526</v>
       </c>
       <c r="AB61">
-        <v>485129.2041432589</v>
+        <v>485129.20414325892</v>
       </c>
       <c r="AC61">
-        <v>279295.813242475</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29">
+        <v>279295.81324247498</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -6411,22 +6429,22 @@
         <v>0</v>
       </c>
       <c r="Y62">
-        <v>753870.9471968613</v>
+        <v>753870.94719686126</v>
       </c>
       <c r="Z62">
-        <v>730595.5268582241</v>
+        <v>730595.52685822407</v>
       </c>
       <c r="AA62">
-        <v>586265.844600325</v>
+        <v>586265.84460032498</v>
       </c>
       <c r="AB62">
         <v>465917.5733675228</v>
       </c>
       <c r="AC62">
-        <v>268235.4029530156</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29">
+        <v>268235.40295301558</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -6470,13 +6488,13 @@
         <v>0</v>
       </c>
       <c r="O63">
-        <v>80585.10000000001</v>
+        <v>80585.100000000006</v>
       </c>
       <c r="P63">
         <v>53.1145</v>
       </c>
       <c r="Q63">
-        <v>1517195.869301227</v>
+        <v>1517195.8693012269</v>
       </c>
       <c r="R63">
         <v>0.8</v>
@@ -6485,28 +6503,28 @@
         <v>0</v>
       </c>
       <c r="T63">
-        <v>1213756.695440981</v>
+        <v>1213756.6954409811</v>
       </c>
       <c r="X63">
         <v>0</v>
       </c>
       <c r="Y63">
-        <v>326222.2206724753</v>
+        <v>326222.22067247529</v>
       </c>
       <c r="Z63">
-        <v>316150.2589684348</v>
+        <v>316150.25896843482</v>
       </c>
       <c r="AA63">
-        <v>253694.543397757</v>
+        <v>253694.54339775699</v>
       </c>
       <c r="AB63">
-        <v>201616.2925490664</v>
+        <v>201616.29254906639</v>
       </c>
       <c r="AC63">
         <v>116073.3798532478</v>
       </c>
     </row>
-    <row r="64" spans="1:29">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -6553,10 +6571,10 @@
         <v>198.4</v>
       </c>
       <c r="P64">
-        <v>52.32655</v>
+        <v>52.326549999999997</v>
       </c>
       <c r="Q64">
-        <v>3791.574258192065</v>
+        <v>3791.5742581920649</v>
       </c>
       <c r="R64">
         <v>0.8</v>
@@ -6565,28 +6583,28 @@
         <v>0</v>
       </c>
       <c r="T64">
-        <v>3033.259406553652</v>
+        <v>3033.2594065536518</v>
       </c>
       <c r="X64">
         <v>0</v>
       </c>
       <c r="Y64">
-        <v>815.2512140187176</v>
+        <v>815.25121401871763</v>
       </c>
       <c r="Z64">
-        <v>790.0807060446058</v>
+        <v>790.08070604460579</v>
       </c>
       <c r="AA64">
-        <v>633.9996830031889</v>
+        <v>633.99968300318892</v>
       </c>
       <c r="AB64">
         <v>503.8526404723471</v>
       </c>
       <c r="AC64">
-        <v>290.0751630147929</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29">
+        <v>290.07516301479291</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -6636,7 +6654,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q65">
-        <v>3551484.058025587</v>
+        <v>3551484.0580255869</v>
       </c>
       <c r="R65">
         <v>0.8</v>
@@ -6645,28 +6663,28 @@
         <v>0</v>
       </c>
       <c r="T65">
-        <v>2841187.24642047</v>
+        <v>2841187.2464204701</v>
       </c>
       <c r="X65">
         <v>0</v>
       </c>
       <c r="Y65">
-        <v>763627.8476197036</v>
+        <v>763627.84761970362</v>
       </c>
       <c r="Z65">
-        <v>740051.1874476596</v>
+        <v>740051.18744765955</v>
       </c>
       <c r="AA65">
-        <v>593853.5325041343</v>
+        <v>593853.53250413435</v>
       </c>
       <c r="AB65">
-        <v>471947.6656339809</v>
+        <v>471947.66563398088</v>
       </c>
       <c r="AC65">
-        <v>271707.0132149907</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29">
+        <v>271707.01321499067</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -6731,22 +6749,22 @@
         <v>0</v>
       </c>
       <c r="Y66">
-        <v>540918.9646670235</v>
+        <v>540918.96466702351</v>
       </c>
       <c r="Z66">
-        <v>524218.3392899883</v>
+        <v>524218.33928998827</v>
       </c>
       <c r="AA66">
-        <v>420658.6218238152</v>
+        <v>420658.62182381522</v>
       </c>
       <c r="AB66">
-        <v>334306.0935604944</v>
+        <v>334306.09356049442</v>
       </c>
       <c r="AC66">
-        <v>192464.7938641123</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29">
+        <v>192464.79386411229</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -6790,13 +6808,13 @@
         <v>0</v>
       </c>
       <c r="O67">
-        <v>89423.60000000001</v>
+        <v>89423.6</v>
       </c>
       <c r="P67">
         <v>53.1145</v>
       </c>
       <c r="Q67">
-        <v>1683600.523397566</v>
+        <v>1683600.5233975661</v>
       </c>
       <c r="R67">
         <v>0.8</v>
@@ -6811,22 +6829,22 @@
         <v>0</v>
       </c>
       <c r="Y67">
-        <v>362001.9752103945</v>
+        <v>362001.97521039448</v>
       </c>
       <c r="Z67">
-        <v>350825.3299665785</v>
+        <v>350825.32996657852</v>
       </c>
       <c r="AA67">
-        <v>281519.5286843804</v>
+        <v>281519.52868438041</v>
       </c>
       <c r="AB67">
-        <v>223729.3829552945</v>
+        <v>223729.38295529451</v>
       </c>
       <c r="AC67">
         <v>128804.2019014047</v>
       </c>
     </row>
-    <row r="68" spans="1:29">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -6876,7 +6894,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q68">
-        <v>2106200.754972747</v>
+        <v>2106200.7549727471</v>
       </c>
       <c r="R68">
         <v>0.8</v>
@@ -6891,22 +6909,22 @@
         <v>0</v>
       </c>
       <c r="Y68">
-        <v>452868.0188047874</v>
+        <v>452868.01880478743</v>
       </c>
       <c r="Z68">
-        <v>438885.9260675608</v>
+        <v>438885.92606756079</v>
       </c>
       <c r="AA68">
-        <v>352183.6894289191</v>
+        <v>352183.68942891911</v>
       </c>
       <c r="AB68">
-        <v>279887.650746919</v>
+        <v>279887.65074691898</v>
       </c>
       <c r="AC68">
         <v>161135.3189300113</v>
       </c>
     </row>
-    <row r="69" spans="1:29">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -6950,13 +6968,13 @@
         <v>0</v>
       </c>
       <c r="O69">
-        <v>142204.8</v>
+        <v>142204.79999999999</v>
       </c>
       <c r="P69">
         <v>53.1145</v>
       </c>
       <c r="Q69">
-        <v>2677325.400785097</v>
+        <v>2677325.4007850969</v>
       </c>
       <c r="R69">
         <v>0.8</v>
@@ -6965,28 +6983,28 @@
         <v>0</v>
       </c>
       <c r="T69">
-        <v>2141860.320628078</v>
+        <v>2141860.3206280782</v>
       </c>
       <c r="X69">
         <v>0</v>
       </c>
       <c r="Y69">
-        <v>575669.2694590591</v>
+        <v>575669.26945905911</v>
       </c>
       <c r="Z69">
-        <v>557895.7443318242</v>
+        <v>557895.74433182424</v>
       </c>
       <c r="AA69">
-        <v>447683.0307956355</v>
+        <v>447683.03079563548</v>
       </c>
       <c r="AB69">
-        <v>355782.9494370733</v>
+        <v>355782.94943707332</v>
       </c>
       <c r="AC69">
         <v>204829.3266044856</v>
       </c>
     </row>
-    <row r="70" spans="1:29">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7030,13 +7048,13 @@
         <v>0</v>
       </c>
       <c r="O70">
-        <v>164958.8</v>
+        <v>164958.79999999999</v>
       </c>
       <c r="P70">
         <v>53.1145</v>
       </c>
       <c r="Q70">
-        <v>3105720.660083405</v>
+        <v>3105720.6600834052</v>
       </c>
       <c r="R70">
         <v>0.8</v>
@@ -7045,28 +7063,28 @@
         <v>0</v>
       </c>
       <c r="T70">
-        <v>2484576.528066724</v>
+        <v>2484576.5280667241</v>
       </c>
       <c r="X70">
         <v>0</v>
       </c>
       <c r="Y70">
-        <v>667781.3399185049</v>
+        <v>667781.33991850493</v>
       </c>
       <c r="Z70">
-        <v>647163.8967888883</v>
+        <v>647163.89678888826</v>
       </c>
       <c r="AA70">
-        <v>519316.1942523111</v>
+        <v>519316.19425231108</v>
       </c>
       <c r="AB70">
-        <v>412711.3036943919</v>
+        <v>412711.30369439191</v>
       </c>
       <c r="AC70">
-        <v>237603.7934126275</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29">
+        <v>237603.79341262751</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7110,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="O71">
-        <v>80875.89999999999</v>
+        <v>80875.899999999994</v>
       </c>
       <c r="P71">
         <v>53.1145</v>
@@ -7125,28 +7143,28 @@
         <v>0</v>
       </c>
       <c r="T71">
-        <v>1218136.667011833</v>
+        <v>1218136.6670118331</v>
       </c>
       <c r="X71">
         <v>0</v>
       </c>
       <c r="Y71">
-        <v>327399.4286398484</v>
+        <v>327399.42863984843</v>
       </c>
       <c r="Z71">
-        <v>317291.1211787941</v>
+        <v>317291.12117879413</v>
       </c>
       <c r="AA71">
-        <v>254610.0274415824</v>
+        <v>254610.02744158241</v>
       </c>
       <c r="AB71">
-        <v>202343.8466238678</v>
+        <v>202343.84662386781</v>
       </c>
       <c r="AC71">
         <v>116492.2431277405</v>
       </c>
     </row>
-    <row r="72" spans="1:29">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -7196,7 +7214,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q72">
-        <v>1905907.049863973</v>
+        <v>1905907.0498639729</v>
       </c>
       <c r="R72">
         <v>0.8</v>
@@ -7205,28 +7223,28 @@
         <v>0</v>
       </c>
       <c r="T72">
-        <v>1524725.639891178</v>
+        <v>1524725.6398911781</v>
       </c>
       <c r="X72">
         <v>0</v>
       </c>
       <c r="Y72">
-        <v>409801.5574536923</v>
+        <v>409801.55745369231</v>
       </c>
       <c r="Z72">
-        <v>397149.1219929156</v>
+        <v>397149.12199291558</v>
       </c>
       <c r="AA72">
-        <v>318692.0216151789</v>
+        <v>318692.02161517891</v>
       </c>
       <c r="AB72">
-        <v>253271.1307167492</v>
+        <v>253271.13071674921</v>
       </c>
       <c r="AC72">
         <v>145811.8081126422</v>
       </c>
     </row>
-    <row r="73" spans="1:29">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -7276,7 +7294,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q73">
-        <v>3801965.564958721</v>
+        <v>3801965.5649587209</v>
       </c>
       <c r="R73">
         <v>0.8</v>
@@ -7285,28 +7303,28 @@
         <v>0</v>
       </c>
       <c r="T73">
-        <v>3041572.451966977</v>
+        <v>3041572.4519669772</v>
       </c>
       <c r="X73">
         <v>0</v>
       </c>
       <c r="Y73">
-        <v>817485.5169440667</v>
+        <v>817485.51694406674</v>
       </c>
       <c r="Z73">
-        <v>792246.0258900991</v>
+        <v>792246.02589009912</v>
       </c>
       <c r="AA73">
-        <v>635737.2423248385</v>
+        <v>635737.24232483853</v>
       </c>
       <c r="AB73">
-        <v>505233.514746674</v>
+        <v>505233.51474667399</v>
       </c>
       <c r="AC73">
-        <v>290870.1520612983</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29">
+        <v>290870.15206129831</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -7356,7 +7374,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q74">
-        <v>3400690.960095643</v>
+        <v>3400690.9600956431</v>
       </c>
       <c r="R74">
         <v>0.8</v>
@@ -7365,28 +7383,28 @@
         <v>0</v>
       </c>
       <c r="T74">
-        <v>2720552.768076514</v>
+        <v>2720552.7680765139</v>
       </c>
       <c r="X74">
         <v>0</v>
       </c>
       <c r="Y74">
-        <v>731204.8360203874</v>
+        <v>731204.83602038736</v>
       </c>
       <c r="Z74">
-        <v>708629.2214867575</v>
+        <v>708629.22148675751</v>
       </c>
       <c r="AA74">
-        <v>568638.998968336</v>
+        <v>568638.99896833603</v>
       </c>
       <c r="AB74">
-        <v>451909.1551411821</v>
+        <v>451909.15514118213</v>
       </c>
       <c r="AC74">
-        <v>260170.5564598509</v>
-      </c>
-    </row>
-    <row r="75" spans="1:29">
+        <v>260170.55645985089</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -7436,7 +7454,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q75">
-        <v>2129081.51258131</v>
+        <v>2129081.5125813098</v>
       </c>
       <c r="R75">
         <v>0.8</v>
@@ -7451,22 +7469,22 @@
         <v>0</v>
       </c>
       <c r="Y75">
-        <v>457787.7603548166</v>
+        <v>457787.76035481662</v>
       </c>
       <c r="Z75">
-        <v>443653.7728497122</v>
+        <v>443653.77284971217</v>
       </c>
       <c r="AA75">
-        <v>356009.6445818109</v>
+        <v>356009.64458181092</v>
       </c>
       <c r="AB75">
         <v>282928.2163146839</v>
       </c>
       <c r="AC75">
-        <v>162885.8159640245</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29">
+        <v>162885.81596402451</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7525,28 +7543,28 @@
         <v>0</v>
       </c>
       <c r="T76">
-        <v>2466202.637697804</v>
+        <v>2466202.6376978038</v>
       </c>
       <c r="X76">
         <v>0</v>
       </c>
       <c r="Y76">
-        <v>662842.9767843977</v>
+        <v>662842.97678439773</v>
       </c>
       <c r="Z76">
-        <v>642378.0033555416</v>
+        <v>642378.00335554162</v>
       </c>
       <c r="AA76">
-        <v>515475.7575774058</v>
+        <v>515475.75757740578</v>
       </c>
       <c r="AB76">
-        <v>409659.2293620327</v>
+        <v>409659.22936203273</v>
       </c>
       <c r="AC76">
         <v>235846.6706184264</v>
       </c>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7596,7 +7614,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q77">
-        <v>3757262.141223207</v>
+        <v>3757262.1412232071</v>
       </c>
       <c r="R77">
         <v>0.8</v>
@@ -7605,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="T77">
-        <v>3005809.712978566</v>
+        <v>3005809.7129785661</v>
       </c>
       <c r="X77">
         <v>0</v>
@@ -7614,19 +7632,19 @@
         <v>807873.5410233977</v>
       </c>
       <c r="Z77">
-        <v>782930.8153251854</v>
+        <v>782930.81532518542</v>
       </c>
       <c r="AA77">
-        <v>628262.2584401798</v>
+        <v>628262.25844017975</v>
       </c>
       <c r="AB77">
-        <v>499292.9906916255</v>
+        <v>499292.99069162551</v>
       </c>
       <c r="AC77">
-        <v>287450.1074981774</v>
-      </c>
-    </row>
-    <row r="78" spans="1:29">
+        <v>287450.10749817739</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7676,7 +7694,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q78">
-        <v>1151356.032721761</v>
+        <v>1151356.0327217609</v>
       </c>
       <c r="R78">
         <v>0.8</v>
@@ -7685,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="T78">
-        <v>921084.8261774092</v>
+        <v>921084.82617740915</v>
       </c>
       <c r="X78">
         <v>0</v>
@@ -7694,19 +7712,19 @@
         <v>247560.6013560615</v>
       </c>
       <c r="Z78">
-        <v>239917.2811335839</v>
+        <v>239917.28113358389</v>
       </c>
       <c r="AA78">
-        <v>192521.446254747</v>
+        <v>192521.44625474699</v>
       </c>
       <c r="AB78">
-        <v>153000.7689964751</v>
+        <v>153000.76899647509</v>
       </c>
       <c r="AC78">
-        <v>88084.72843654171</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29">
+        <v>88084.728436541714</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7765,28 +7783,28 @@
         <v>0</v>
       </c>
       <c r="T79">
-        <v>2622274.520140451</v>
+        <v>2622274.5201404509</v>
       </c>
       <c r="X79">
         <v>0</v>
       </c>
       <c r="Y79">
-        <v>704790.5238226251</v>
+        <v>704790.52382262505</v>
       </c>
       <c r="Z79">
-        <v>683030.4390844395</v>
+        <v>683030.43908443954</v>
       </c>
       <c r="AA79">
-        <v>548097.2748075376</v>
+        <v>548097.27480753756</v>
       </c>
       <c r="AB79">
-        <v>435584.2227543928</v>
+        <v>435584.22275439277</v>
       </c>
       <c r="AC79">
-        <v>250772.0596714565</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29">
+        <v>250772.05967145649</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7836,7 +7854,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q80">
-        <v>978433.3844806973</v>
+        <v>978433.38448069734</v>
       </c>
       <c r="R80">
         <v>0.8</v>
@@ -7845,28 +7863,28 @@
         <v>0</v>
       </c>
       <c r="T80">
-        <v>782746.7075845579</v>
+        <v>782746.70758455794</v>
       </c>
       <c r="X80">
         <v>0</v>
       </c>
       <c r="Y80">
-        <v>210379.3702077415</v>
+        <v>210379.37020774151</v>
       </c>
       <c r="Z80">
-        <v>203884.0034737265</v>
+        <v>203884.00347372651</v>
       </c>
       <c r="AA80">
-        <v>163606.5690287415</v>
+        <v>163606.56902874151</v>
       </c>
       <c r="AB80">
         <v>130021.5189592423</v>
       </c>
       <c r="AC80">
-        <v>74855.24591510632</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29">
+        <v>74855.245915106323</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7916,7 +7934,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q81">
-        <v>3692878.592474748</v>
+        <v>3692878.5924747479</v>
       </c>
       <c r="R81">
         <v>0.8</v>
@@ -7934,19 +7952,19 @@
         <v>794030.0125294989</v>
       </c>
       <c r="Z81">
-        <v>769514.699435345</v>
+        <v>769514.69943534501</v>
       </c>
       <c r="AA81">
-        <v>617496.5060857454</v>
+        <v>617496.50608574541</v>
       </c>
       <c r="AB81">
-        <v>490737.2249777397</v>
+        <v>490737.22497773968</v>
       </c>
       <c r="AC81">
-        <v>282524.4309514689</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29">
+        <v>282524.43095146888</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -8005,7 +8023,7 @@
         <v>0</v>
       </c>
       <c r="T82">
-        <v>845827.0340490828</v>
+        <v>845827.03404908278</v>
       </c>
       <c r="X82">
         <v>0</v>
@@ -8014,19 +8032,19 @@
         <v>227333.5128767757</v>
       </c>
       <c r="Z82">
-        <v>220314.6947502242</v>
+        <v>220314.69475022421</v>
       </c>
       <c r="AA82">
-        <v>176791.3651908626</v>
+        <v>176791.36519086259</v>
       </c>
       <c r="AB82">
         <v>140499.7487414818</v>
       </c>
       <c r="AC82">
-        <v>80887.71248973845</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29">
+        <v>80887.712489738449</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -8076,7 +8094,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q83">
-        <v>307179.7720019956</v>
+        <v>307179.77200199559</v>
       </c>
       <c r="R83">
         <v>0.8</v>
@@ -8091,22 +8109,22 @@
         <v>0</v>
       </c>
       <c r="Y83">
-        <v>66048.73463985159</v>
+        <v>66048.734639851595</v>
       </c>
       <c r="Z83">
-        <v>64009.51019793101</v>
+        <v>64009.510197931013</v>
       </c>
       <c r="AA83">
-        <v>51364.38450426671</v>
+        <v>51364.384504266709</v>
       </c>
       <c r="AB83">
-        <v>40820.33706408261</v>
+        <v>40820.337064082611</v>
       </c>
       <c r="AC83">
-        <v>23500.8511954646</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29">
+        <v>23500.851195464598</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -8150,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="O84">
-        <v>77680.8</v>
+        <v>77680.800000000003</v>
       </c>
       <c r="P84">
         <v>53.1145</v>
@@ -8171,10 +8189,10 @@
         <v>0</v>
       </c>
       <c r="Y84">
-        <v>314465.1192294161</v>
+        <v>314465.11922941607</v>
       </c>
       <c r="Z84">
-        <v>304756.1526494996</v>
+        <v>304756.15264949959</v>
       </c>
       <c r="AA84">
         <v>244551.351140254</v>
@@ -8186,7 +8204,7 @@
         <v>111890.0765241238</v>
       </c>
     </row>
-    <row r="85" spans="1:29">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -8245,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="T85">
-        <v>2904764.612299843</v>
+        <v>2904764.6122998432</v>
       </c>
       <c r="X85">
         <v>0</v>
@@ -8254,19 +8272,19 @@
         <v>780715.5799136461</v>
       </c>
       <c r="Z85">
-        <v>756611.3438305599</v>
+        <v>756611.34383055987</v>
       </c>
       <c r="AA85">
-        <v>607142.2178459191</v>
+        <v>607142.21784591908</v>
       </c>
       <c r="AB85">
-        <v>482508.4582926593</v>
+        <v>482508.45829265931</v>
       </c>
       <c r="AC85">
-        <v>277787.0124170585</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29">
+        <v>277787.01241705852</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -8313,10 +8331,10 @@
         <v>244.3</v>
       </c>
       <c r="P86">
-        <v>52.32655</v>
+        <v>52.326549999999997</v>
       </c>
       <c r="Q86">
-        <v>4668.758020545975</v>
+        <v>4668.7580205459753</v>
       </c>
       <c r="R86">
         <v>0.8</v>
@@ -8334,19 +8352,19 @@
         <v>1003.860239842604</v>
       </c>
       <c r="Z86">
-        <v>972.866514549885</v>
+        <v>972.86651454988498</v>
       </c>
       <c r="AA86">
-        <v>780.6760209560434</v>
+        <v>780.67602095604343</v>
       </c>
       <c r="AB86">
         <v>620.4193551783992</v>
       </c>
       <c r="AC86">
-        <v>357.1842859098484</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29">
+        <v>357.18428590984843</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -8396,7 +8414,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q87">
-        <v>2071536.021237139</v>
+        <v>2071536.0212371389</v>
       </c>
       <c r="R87">
         <v>0.8</v>
@@ -8411,22 +8429,22 @@
         <v>0</v>
       </c>
       <c r="Y87">
-        <v>445414.5273689989</v>
+        <v>445414.52736899891</v>
       </c>
       <c r="Z87">
-        <v>431662.5577673084</v>
+        <v>431662.55776730838</v>
       </c>
       <c r="AA87">
-        <v>346387.3028350706</v>
+        <v>346387.30283507059</v>
       </c>
       <c r="AB87">
-        <v>275281.1426226959</v>
+        <v>275281.14262269589</v>
       </c>
       <c r="AC87">
-        <v>158483.2863956371</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29">
+        <v>158483.28639563709</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -8473,10 +8491,10 @@
         <v>4.2</v>
       </c>
       <c r="P88">
-        <v>74.203</v>
+        <v>74.203000000000003</v>
       </c>
       <c r="Q88">
-        <v>56.60148511515707</v>
+        <v>56.601485115157068</v>
       </c>
       <c r="R88">
         <v>0.8</v>
@@ -8512,7 +8530,7 @@
         <v>4.330308179032599</v>
       </c>
     </row>
-    <row r="89" spans="1:29">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -8556,13 +8574,13 @@
         <v>0</v>
       </c>
       <c r="O89">
-        <v>75855.2</v>
+        <v>75855.199999999997</v>
       </c>
       <c r="P89">
         <v>53.1145</v>
       </c>
       <c r="Q89">
-        <v>1428144.856865828</v>
+        <v>1428144.8568658279</v>
       </c>
       <c r="R89">
         <v>0.8</v>
@@ -8577,22 +8595,22 @@
         <v>0</v>
       </c>
       <c r="Y89">
-        <v>307074.7792526751</v>
+        <v>307074.77925267513</v>
       </c>
       <c r="Z89">
-        <v>297593.9860359101</v>
+        <v>297593.98603591009</v>
       </c>
       <c r="AA89">
-        <v>238804.0757949738</v>
+        <v>238804.07579497379</v>
       </c>
       <c r="AB89">
-        <v>189782.5304500205</v>
+        <v>189782.53045002051</v>
       </c>
       <c r="AC89">
         <v>109260.5139590828</v>
       </c>
     </row>
-    <row r="90" spans="1:29">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -8642,7 +8660,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q90">
-        <v>1904760.470304719</v>
+        <v>1904760.4703047189</v>
       </c>
       <c r="R90">
         <v>0.8</v>
@@ -8657,22 +8675,22 @@
         <v>0</v>
       </c>
       <c r="Y90">
-        <v>409555.02387318</v>
+        <v>409555.02387317998</v>
       </c>
       <c r="Z90">
-        <v>396910.2000238275</v>
+        <v>396910.20002382749</v>
       </c>
       <c r="AA90">
-        <v>318500.2988563449</v>
+        <v>318500.29885634489</v>
       </c>
       <c r="AB90">
-        <v>253118.7646811393</v>
+        <v>253118.76468113929</v>
       </c>
       <c r="AC90">
-        <v>145724.0888092839</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29">
+        <v>145724.08880928389</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -8722,7 +8740,7 @@
         <v>120.179</v>
       </c>
       <c r="Q91">
-        <v>4497.45795854517</v>
+        <v>4497.4579585451702</v>
       </c>
       <c r="R91">
         <v>0.8</v>
@@ -8731,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="T91">
-        <v>3597.966366836136</v>
+        <v>3597.9663668361359</v>
       </c>
       <c r="U91" t="s">
         <v>334</v>
@@ -8743,22 +8761,22 @@
         <v>0</v>
       </c>
       <c r="Y91">
-        <v>967.0278915888666</v>
+        <v>967.02789158886662</v>
       </c>
       <c r="Z91">
-        <v>937.1713481849737</v>
+        <v>937.17134818497368</v>
       </c>
       <c r="AA91">
-        <v>752.0324608906466</v>
+        <v>752.03246089064658</v>
       </c>
       <c r="AB91">
-        <v>597.6557264915282</v>
+        <v>597.65572649152818</v>
       </c>
       <c r="AC91">
-        <v>344.0789396801212</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29">
+        <v>344.07893968012121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8805,7 +8823,7 @@
         <v>10.8</v>
       </c>
       <c r="P92">
-        <v>74.203</v>
+        <v>74.203000000000003</v>
       </c>
       <c r="Q92">
         <v>145.5466760104039</v>
@@ -8826,19 +8844,19 @@
         <v>31.29494406116418</v>
       </c>
       <c r="Z92">
-        <v>30.32872699151032</v>
+        <v>30.328726991510319</v>
       </c>
       <c r="AA92">
-        <v>24.33726472675339</v>
+        <v>24.337264726753389</v>
       </c>
       <c r="AB92">
-        <v>19.34132685423998</v>
+        <v>19.341326854239981</v>
       </c>
       <c r="AC92">
-        <v>11.13507817465526</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29">
+        <v>11.135078174655259</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -8882,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="O93">
-        <v>85801.60000000001</v>
+        <v>85801.600000000006</v>
       </c>
       <c r="P93">
         <v>53.1145</v>
@@ -8897,28 +8915,28 @@
         <v>0</v>
       </c>
       <c r="T93">
-        <v>1292326.577488257</v>
+        <v>1292326.5774882571</v>
       </c>
       <c r="X93">
         <v>0</v>
       </c>
       <c r="Y93">
-        <v>347339.501834104</v>
+        <v>347339.50183410401</v>
       </c>
       <c r="Z93">
-        <v>336615.5537426405</v>
+        <v>336615.55374264048</v>
       </c>
       <c r="AA93">
-        <v>270116.9041770375</v>
+        <v>270116.90417703748</v>
       </c>
       <c r="AB93">
-        <v>214667.4817897847</v>
+        <v>214667.48178978471</v>
       </c>
       <c r="AC93">
         <v>123587.1359446898</v>
       </c>
     </row>
-    <row r="94" spans="1:29">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -8965,7 +8983,7 @@
         <v>5293</v>
       </c>
       <c r="P94">
-        <v>52.32655</v>
+        <v>52.326549999999997</v>
       </c>
       <c r="Q94">
         <v>101153.2386522712</v>
@@ -8983,22 +9001,22 @@
         <v>0</v>
       </c>
       <c r="Y94">
-        <v>21749.62034173928</v>
+        <v>21749.620341739279</v>
       </c>
       <c r="Z94">
-        <v>21078.11077164364</v>
+        <v>21078.110771643642</v>
       </c>
       <c r="AA94">
-        <v>16914.11452689455</v>
+        <v>16914.114526894551</v>
       </c>
       <c r="AB94">
-        <v>13441.9960988918</v>
+        <v>13441.996098891799</v>
       </c>
       <c r="AC94">
-        <v>7738.749182647675</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29">
+        <v>7738.7491826476753</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -9048,7 +9066,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q95">
-        <v>1138498.903312655</v>
+        <v>1138498.9033126549</v>
       </c>
       <c r="R95">
         <v>0.8</v>
@@ -9057,28 +9075,28 @@
         <v>0</v>
       </c>
       <c r="T95">
-        <v>910799.1226501238</v>
+        <v>910799.12265012378</v>
       </c>
       <c r="X95">
         <v>0</v>
       </c>
       <c r="Y95">
-        <v>244796.1057545517</v>
+        <v>244796.10575455171</v>
       </c>
       <c r="Z95">
         <v>237238.1380680601</v>
       </c>
       <c r="AA95">
-        <v>190371.5698670981</v>
+        <v>190371.56986709809</v>
       </c>
       <c r="AB95">
-        <v>151292.2178352585</v>
+        <v>151292.21783525849</v>
       </c>
       <c r="AC95">
-        <v>87101.09112515558</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29">
+        <v>87101.091125155581</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -9137,7 +9155,7 @@
         <v>0</v>
       </c>
       <c r="T96">
-        <v>1084431.881847937</v>
+        <v>1084431.8818479369</v>
       </c>
       <c r="X96">
         <v>0</v>
@@ -9152,13 +9170,13 @@
         <v>226663.5909360965</v>
       </c>
       <c r="AB96">
-        <v>180134.2364259854</v>
+        <v>180134.23642598541</v>
       </c>
       <c r="AC96">
         <v>103705.853256674</v>
       </c>
     </row>
-    <row r="97" spans="1:29">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -9217,28 +9235,28 @@
         <v>0</v>
       </c>
       <c r="T97">
-        <v>1593598.734808762</v>
+        <v>1593598.7348087621</v>
       </c>
       <c r="X97">
         <v>0</v>
       </c>
       <c r="Y97">
-        <v>428312.6264784753</v>
+        <v>428312.62647847529</v>
       </c>
       <c r="Z97">
-        <v>415088.6702367594</v>
+        <v>415088.67023675941</v>
       </c>
       <c r="AA97">
-        <v>333087.5989439274</v>
+        <v>333087.59894392738</v>
       </c>
       <c r="AB97">
-        <v>264711.5932953043</v>
+        <v>264711.59329530428</v>
       </c>
       <c r="AC97">
-        <v>152398.245854296</v>
-      </c>
-    </row>
-    <row r="98" spans="1:29">
+        <v>152398.24585429599</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -9288,7 +9306,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q98">
-        <v>283606.1715727344</v>
+        <v>283606.17157273443</v>
       </c>
       <c r="R98">
         <v>0.8</v>
@@ -9297,7 +9315,7 @@
         <v>0</v>
       </c>
       <c r="T98">
-        <v>226884.9372581875</v>
+        <v>226884.93725818751</v>
       </c>
       <c r="X98">
         <v>0</v>
@@ -9306,19 +9324,19 @@
         <v>60980.02041719744</v>
       </c>
       <c r="Z98">
-        <v>59097.29020621571</v>
+        <v>59097.290206215708</v>
       </c>
       <c r="AA98">
-        <v>47422.57717526505</v>
+        <v>47422.577175265047</v>
       </c>
       <c r="AB98">
-        <v>37687.7013795617</v>
+        <v>37687.701379561702</v>
       </c>
       <c r="AC98">
-        <v>21697.34807994757</v>
-      </c>
-    </row>
-    <row r="99" spans="1:29">
+        <v>21697.348079947569</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -9377,7 +9395,7 @@
         <v>0</v>
       </c>
       <c r="T99">
-        <v>56534.46798896723</v>
+        <v>56534.467988967233</v>
       </c>
       <c r="X99">
         <v>0</v>
@@ -9389,16 +9407,16 @@
         <v>14725.67505702692</v>
       </c>
       <c r="AA99">
-        <v>11816.60714751835</v>
+        <v>11816.607147518351</v>
       </c>
       <c r="AB99">
-        <v>9390.901718592158</v>
+        <v>9390.9017185921584</v>
       </c>
       <c r="AC99">
-        <v>5406.47627513232</v>
-      </c>
-    </row>
-    <row r="100" spans="1:29">
+        <v>5406.4762751323196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -9448,7 +9466,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q100">
-        <v>1157177.418595675</v>
+        <v>1157177.4185956749</v>
       </c>
       <c r="R100">
         <v>0.8</v>
@@ -9457,7 +9475,7 @@
         <v>0</v>
       </c>
       <c r="T100">
-        <v>925741.9348765403</v>
+        <v>925741.93487654033</v>
       </c>
       <c r="X100">
         <v>0</v>
@@ -9466,19 +9484,19 @@
         <v>248812.295659747</v>
       </c>
       <c r="Z100">
-        <v>241130.3299487251</v>
+        <v>241130.32994872509</v>
       </c>
       <c r="AA100">
         <v>193494.8563866273</v>
       </c>
       <c r="AB100">
-        <v>153774.3581296545</v>
+        <v>153774.35812965449</v>
       </c>
       <c r="AC100">
-        <v>88530.0947517864</v>
-      </c>
-    </row>
-    <row r="101" spans="1:29">
+        <v>88530.094751786397</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -9537,28 +9555,28 @@
         <v>0</v>
       </c>
       <c r="T101">
-        <v>2816166.583512977</v>
+        <v>2816166.5835129772</v>
       </c>
       <c r="X101">
         <v>0</v>
       </c>
       <c r="Y101">
-        <v>756903.0268652326</v>
+        <v>756903.02686523262</v>
       </c>
       <c r="Z101">
         <v>733533.9924550571</v>
       </c>
       <c r="AA101">
-        <v>588623.8141629974</v>
+        <v>588623.81416299741</v>
       </c>
       <c r="AB101">
-        <v>467791.5004721519</v>
+        <v>467791.50047215191</v>
       </c>
       <c r="AC101">
-        <v>269314.2495575377</v>
-      </c>
-    </row>
-    <row r="102" spans="1:29">
+        <v>269314.24955753773</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -9608,7 +9626,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q102">
-        <v>1817912.246185128</v>
+        <v>1817912.2461851281</v>
       </c>
       <c r="R102">
         <v>0.8</v>
@@ -9623,22 +9641,22 @@
         <v>0</v>
       </c>
       <c r="Y102">
-        <v>390881.2183962362</v>
+        <v>390881.21839623619</v>
       </c>
       <c r="Z102">
-        <v>378812.9397412753</v>
+        <v>378812.93974127527</v>
       </c>
       <c r="AA102">
-        <v>303978.1656178242</v>
+        <v>303978.16561782418</v>
       </c>
       <c r="AB102">
-        <v>241577.7255076495</v>
+        <v>241577.72550764951</v>
       </c>
       <c r="AC102">
-        <v>139079.7476851176</v>
-      </c>
-    </row>
-    <row r="103" spans="1:29">
+        <v>139079.74768511759</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -9682,13 +9700,13 @@
         <v>0</v>
       </c>
       <c r="O103">
-        <v>87261.70000000001</v>
+        <v>87261.700000000012</v>
       </c>
       <c r="P103">
         <v>53.1145</v>
       </c>
       <c r="Q103">
-        <v>1642897.890406575</v>
+        <v>1642897.8904065751</v>
       </c>
       <c r="R103">
         <v>0.8</v>
@@ -9697,28 +9715,28 @@
         <v>0</v>
       </c>
       <c r="T103">
-        <v>1314318.31232526</v>
+        <v>1314318.3123252599</v>
       </c>
       <c r="X103">
         <v>0</v>
       </c>
       <c r="Y103">
-        <v>353250.2355107252</v>
+        <v>353250.23551072518</v>
       </c>
       <c r="Z103">
-        <v>342343.796223196</v>
+        <v>342343.79622319603</v>
       </c>
       <c r="AA103">
-        <v>274713.5281536172</v>
+        <v>274713.52815361723</v>
       </c>
       <c r="AB103">
-        <v>218320.5137864056</v>
+        <v>218320.51378640559</v>
       </c>
       <c r="AC103">
         <v>125690.2386513159</v>
       </c>
     </row>
-    <row r="104" spans="1:29">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -9777,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="T104">
-        <v>1214618.23042672</v>
+        <v>1214618.2304267201</v>
       </c>
       <c r="X104">
         <v>0</v>
       </c>
       <c r="Y104">
-        <v>326453.7760223162</v>
+        <v>326453.77602231619</v>
       </c>
       <c r="Z104">
-        <v>316374.6651528659</v>
+        <v>316374.66515286593</v>
       </c>
       <c r="AA104">
-        <v>253874.617975841</v>
+        <v>253874.61797584101</v>
       </c>
       <c r="AB104">
-        <v>201759.401534894</v>
+        <v>201759.40153489399</v>
       </c>
       <c r="AC104">
         <v>116155.7697408027</v>
       </c>
     </row>
-    <row r="105" spans="1:29">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -9848,7 +9866,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q105">
-        <v>3843933.38918751</v>
+        <v>3843933.3891875101</v>
       </c>
       <c r="R105">
         <v>0.8</v>
@@ -9857,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="T105">
-        <v>3075146.711350008</v>
+        <v>3075146.7113500079</v>
       </c>
       <c r="X105">
         <v>0</v>
@@ -9866,19 +9884,19 @@
         <v>826509.2936980949</v>
       </c>
       <c r="Z105">
-        <v>800991.197668338</v>
+        <v>800991.19766833796</v>
       </c>
       <c r="AA105">
-        <v>642754.7990032809</v>
+        <v>642754.79900328093</v>
       </c>
       <c r="AB105">
-        <v>510810.5119548569</v>
+        <v>510810.51195485692</v>
       </c>
       <c r="AC105">
-        <v>294080.9090254378</v>
-      </c>
-    </row>
-    <row r="106" spans="1:29">
+        <v>294080.90902543778</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -9928,7 +9946,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q106">
-        <v>947323.2356512817</v>
+        <v>947323.23565128166</v>
       </c>
       <c r="R106">
         <v>0.8</v>
@@ -9937,28 +9955,28 @@
         <v>0</v>
       </c>
       <c r="T106">
-        <v>757858.5885210254</v>
+        <v>757858.58852102538</v>
       </c>
       <c r="X106">
         <v>0</v>
       </c>
       <c r="Y106">
-        <v>203690.173353246</v>
+        <v>203690.17335324601</v>
       </c>
       <c r="Z106">
         <v>197401.332509498</v>
       </c>
       <c r="AA106">
-        <v>158404.5544688482</v>
+        <v>158404.55446884819</v>
       </c>
       <c r="AB106">
-        <v>125887.3705644636</v>
+        <v>125887.37056446361</v>
       </c>
       <c r="AC106">
-        <v>72475.15762496945</v>
-      </c>
-    </row>
-    <row r="107" spans="1:29">
+        <v>72475.157624969448</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -10017,28 +10035,28 @@
         <v>0</v>
       </c>
       <c r="T107">
-        <v>1585626.523830593</v>
+        <v>1585626.5238305931</v>
       </c>
       <c r="X107">
         <v>0</v>
       </c>
       <c r="Y107">
-        <v>426169.9298583564</v>
+        <v>426169.92985835642</v>
       </c>
       <c r="Z107">
-        <v>413012.1283937637</v>
+        <v>413012.12839376368</v>
       </c>
       <c r="AA107">
-        <v>331421.2794652591</v>
+        <v>331421.27946525911</v>
       </c>
       <c r="AB107">
-        <v>263387.3347953308</v>
+        <v>263387.33479533083</v>
       </c>
       <c r="AC107">
-        <v>151635.8513178827</v>
-      </c>
-    </row>
-    <row r="108" spans="1:29">
+        <v>151635.85131788271</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -10088,7 +10106,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q108">
-        <v>3864761.976484764</v>
+        <v>3864761.9764847639</v>
       </c>
       <c r="R108">
         <v>0.8</v>
@@ -10097,28 +10115,28 @@
         <v>0</v>
       </c>
       <c r="T108">
-        <v>3091809.581187811</v>
+        <v>3091809.5811878112</v>
       </c>
       <c r="X108">
         <v>0</v>
       </c>
       <c r="Y108">
-        <v>830987.7846688817</v>
+        <v>830987.78466888168</v>
       </c>
       <c r="Z108">
-        <v>805331.4172808566</v>
+        <v>805331.41728085664</v>
       </c>
       <c r="AA108">
-        <v>646237.6050475861</v>
+        <v>646237.60504758614</v>
       </c>
       <c r="AB108">
-        <v>513578.3698398384</v>
+        <v>513578.36983983841</v>
       </c>
       <c r="AC108">
-        <v>295674.4043506486</v>
-      </c>
-    </row>
-    <row r="109" spans="1:29">
+        <v>295674.40435064858</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -10183,22 +10201,22 @@
         <v>0</v>
       </c>
       <c r="Y109">
-        <v>273139.3711725798</v>
+        <v>273139.37117257982</v>
       </c>
       <c r="Z109">
-        <v>264706.3181431298</v>
+        <v>264706.31814312981</v>
       </c>
       <c r="AA109">
-        <v>212413.3908191028</v>
+        <v>212413.39081910279</v>
       </c>
       <c r="AB109">
-        <v>168809.3081197191</v>
+        <v>168809.30811971909</v>
       </c>
       <c r="AC109">
-        <v>97185.93024606646</v>
-      </c>
-    </row>
-    <row r="110" spans="1:29">
+        <v>97185.930246066462</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -10245,10 +10263,10 @@
         <v>307.3</v>
       </c>
       <c r="P110">
-        <v>74.203</v>
+        <v>74.203000000000003</v>
       </c>
       <c r="Q110">
-        <v>4141.341994258992</v>
+        <v>4141.3419942589917</v>
       </c>
       <c r="R110">
         <v>0.8</v>
@@ -10257,28 +10275,28 @@
         <v>0</v>
       </c>
       <c r="T110">
-        <v>3313.073595407193</v>
+        <v>3313.0735954071929</v>
       </c>
       <c r="X110">
         <v>0</v>
       </c>
       <c r="Y110">
-        <v>890.4570657403473</v>
+        <v>890.45706574034728</v>
       </c>
       <c r="Z110">
-        <v>862.9646115269554</v>
+        <v>862.96461152695542</v>
       </c>
       <c r="AA110">
-        <v>692.4853194936404</v>
+        <v>692.48531949364042</v>
       </c>
       <c r="AB110">
         <v>550.3323835470319</v>
       </c>
       <c r="AC110">
-        <v>316.8342150992185</v>
-      </c>
-    </row>
-    <row r="111" spans="1:29">
+        <v>316.83421509921851</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -10322,13 +10340,13 @@
         <v>0</v>
       </c>
       <c r="O111">
-        <v>81396.39999999999</v>
+        <v>81396.399999999994</v>
       </c>
       <c r="P111">
         <v>53.1145</v>
       </c>
       <c r="Q111">
-        <v>1532470.417682554</v>
+        <v>1532470.4176825541</v>
       </c>
       <c r="R111">
         <v>0.8</v>
@@ -10337,28 +10355,28 @@
         <v>0</v>
       </c>
       <c r="T111">
-        <v>1225976.334146043</v>
+        <v>1225976.3341460431</v>
       </c>
       <c r="X111">
         <v>0</v>
       </c>
       <c r="Y111">
-        <v>329506.5013599917</v>
+        <v>329506.50135999167</v>
       </c>
       <c r="Z111">
-        <v>319333.1389934157</v>
+        <v>319333.13899341569</v>
       </c>
       <c r="AA111">
-        <v>256248.6431390069</v>
+        <v>256248.64313900689</v>
       </c>
       <c r="AB111">
-        <v>203646.0883567909</v>
+        <v>203646.08835679089</v>
       </c>
       <c r="AC111">
-        <v>117241.9622968377</v>
-      </c>
-    </row>
-    <row r="112" spans="1:29">
+        <v>117241.96229683769</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -10408,7 +10426,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q112">
-        <v>552419.7723785407</v>
+        <v>552419.77237854071</v>
       </c>
       <c r="R112">
         <v>0.8</v>
@@ -10417,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="T112">
-        <v>441935.8179028326</v>
+        <v>441935.81790283258</v>
       </c>
       <c r="U112" t="s">
         <v>334</v>
@@ -10435,16 +10453,16 @@
         <v>115112.1339245385</v>
       </c>
       <c r="AA112">
-        <v>92371.64742744363</v>
+        <v>92371.647427443633</v>
       </c>
       <c r="AB112">
-        <v>73409.65572827276</v>
+        <v>73409.655728272759</v>
       </c>
       <c r="AC112">
-        <v>42262.987512134</v>
-      </c>
-    </row>
-    <row r="113" spans="1:29">
+        <v>42262.987512134001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -10494,7 +10512,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q113">
-        <v>2009677.206789107</v>
+        <v>2009677.2067891071</v>
       </c>
       <c r="R113">
         <v>0.8</v>
@@ -10503,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="T113">
-        <v>1607741.765431285</v>
+        <v>1607741.7654312849</v>
       </c>
       <c r="X113">
         <v>0</v>
@@ -10515,16 +10533,16 @@
         <v>418772.5409916676</v>
       </c>
       <c r="AA113">
-        <v>336043.7183289067</v>
+        <v>336043.71832890669</v>
       </c>
       <c r="AB113">
-        <v>267060.882415794</v>
+        <v>267060.88241579401</v>
       </c>
       <c r="AC113">
-        <v>153750.765162235</v>
-      </c>
-    </row>
-    <row r="114" spans="1:29">
+        <v>153750.76516223501</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -10583,28 +10601,28 @@
         <v>0</v>
       </c>
       <c r="T114">
-        <v>977647.9115872314</v>
+        <v>977647.91158723144</v>
       </c>
       <c r="X114">
         <v>0</v>
       </c>
       <c r="Y114">
-        <v>262763.1006706174</v>
+        <v>262763.10067061742</v>
       </c>
       <c r="Z114">
         <v>254650.4102421916</v>
       </c>
       <c r="AA114">
-        <v>204344.0349004884</v>
+        <v>204344.03490048839</v>
       </c>
       <c r="AB114">
-        <v>162396.4243352259</v>
+        <v>162396.42433522589</v>
       </c>
       <c r="AC114">
-        <v>93493.94143870822</v>
-      </c>
-    </row>
-    <row r="115" spans="1:29">
+        <v>93493.941438708222</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -10669,22 +10687,22 @@
         <v>0</v>
       </c>
       <c r="Y115">
-        <v>783754.5414717859</v>
+        <v>783754.54147178587</v>
       </c>
       <c r="Z115">
-        <v>759556.4788419654</v>
+        <v>759556.47884196544</v>
       </c>
       <c r="AA115">
-        <v>609505.539275423</v>
+        <v>609505.53927542304</v>
       </c>
       <c r="AB115">
-        <v>484386.6386363779</v>
+        <v>484386.63863637787</v>
       </c>
       <c r="AC115">
-        <v>278868.3076720849</v>
-      </c>
-    </row>
-    <row r="116" spans="1:29">
+        <v>278868.30767208489</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -10728,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="O116">
-        <v>146049.6</v>
+        <v>146049.60000000001</v>
       </c>
       <c r="P116">
         <v>53.1145</v>
@@ -10749,22 +10767,22 @@
         <v>0</v>
       </c>
       <c r="Y116">
-        <v>591233.6752120026</v>
+        <v>591233.67521200259</v>
       </c>
       <c r="Z116">
-        <v>572979.6061832315</v>
+        <v>572979.60618323146</v>
       </c>
       <c r="AA116">
         <v>459787.064673557</v>
       </c>
       <c r="AB116">
-        <v>365402.2751138131</v>
+        <v>365402.27511381311</v>
       </c>
       <c r="AC116">
-        <v>210367.309815523</v>
-      </c>
-    </row>
-    <row r="117" spans="1:29">
+        <v>210367.30981552301</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -10808,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="O117">
-        <v>82821.60000000001</v>
+        <v>82821.600000000006</v>
       </c>
       <c r="P117">
         <v>53.1145</v>
@@ -10832,19 +10850,19 @@
         <v>335275.9538878462</v>
       </c>
       <c r="Z117">
-        <v>324924.4623159879</v>
+        <v>324924.46231598791</v>
       </c>
       <c r="AA117">
         <v>260735.3964376997</v>
       </c>
       <c r="AB117">
-        <v>207211.8038568143</v>
+        <v>207211.80385681431</v>
       </c>
       <c r="AC117">
         <v>119294.795648994</v>
       </c>
     </row>
-    <row r="118" spans="1:29">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -10903,28 +10921,28 @@
         <v>0</v>
       </c>
       <c r="T118">
-        <v>1684037.315610615</v>
+        <v>1684037.3156106151</v>
       </c>
       <c r="X118">
         <v>0</v>
       </c>
       <c r="Y118">
-        <v>452619.8659560943</v>
+        <v>452619.86595609429</v>
       </c>
       <c r="Z118">
-        <v>438645.4348244556</v>
+        <v>438645.43482445559</v>
       </c>
       <c r="AA118">
-        <v>351990.7074073013</v>
+        <v>351990.70740730129</v>
       </c>
       <c r="AB118">
-        <v>279734.2839491705</v>
+        <v>279734.28394917049</v>
       </c>
       <c r="AC118">
         <v>161047.0234735932</v>
       </c>
     </row>
-    <row r="119" spans="1:29">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -10974,7 +10992,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q119">
-        <v>2335447.005996479</v>
+        <v>2335447.0059964792</v>
       </c>
       <c r="R119">
         <v>0.8</v>
@@ -10989,22 +11007,22 @@
         <v>0</v>
       </c>
       <c r="Y119">
-        <v>502159.7566766057</v>
+        <v>502159.75667660573</v>
       </c>
       <c r="Z119">
-        <v>486655.804100564</v>
+        <v>486655.80410056398</v>
       </c>
       <c r="AA119">
-        <v>390516.5930149929</v>
+        <v>390516.59301499289</v>
       </c>
       <c r="AB119">
-        <v>310351.6008191434</v>
+        <v>310351.60081914341</v>
       </c>
       <c r="AC119">
         <v>178673.8501858775</v>
       </c>
     </row>
-    <row r="120" spans="1:29">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -11054,7 +11072,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q120">
-        <v>3726443.814777509</v>
+        <v>3726443.8147775088</v>
       </c>
       <c r="R120">
         <v>0.8</v>
@@ -11063,28 +11081,28 @@
         <v>0</v>
       </c>
       <c r="T120">
-        <v>2981155.051822007</v>
+        <v>2981155.0518220072</v>
       </c>
       <c r="X120">
         <v>0</v>
       </c>
       <c r="Y120">
-        <v>801247.0908109045</v>
+        <v>801247.09081090451</v>
       </c>
       <c r="Z120">
-        <v>776508.9537291157</v>
+        <v>776508.95372911566</v>
       </c>
       <c r="AA120">
-        <v>623109.0403131588</v>
+        <v>623109.04031315877</v>
       </c>
       <c r="AB120">
-        <v>495197.6218297196</v>
+        <v>495197.62182971957</v>
       </c>
       <c r="AC120">
-        <v>285092.3451391088</v>
-      </c>
-    </row>
-    <row r="121" spans="1:29">
+        <v>285092.34513910877</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -11149,22 +11167,22 @@
         <v>0</v>
       </c>
       <c r="Y121">
-        <v>404398.8691687677</v>
+        <v>404398.86916876771</v>
       </c>
       <c r="Z121">
-        <v>391913.2392351942</v>
+        <v>391913.23923519423</v>
       </c>
       <c r="AA121">
-        <v>314490.4913370179</v>
+        <v>314490.49133701791</v>
       </c>
       <c r="AB121">
-        <v>249932.0878411311</v>
+        <v>249932.08784113111</v>
       </c>
       <c r="AC121">
-        <v>143889.4734285363</v>
-      </c>
-    </row>
-    <row r="122" spans="1:29">
+        <v>143889.47342853629</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -11214,7 +11232,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q122">
-        <v>4528160.860028806</v>
+        <v>4528160.8600288061</v>
       </c>
       <c r="R122">
         <v>0.8</v>
@@ -11223,28 +11241,28 @@
         <v>0</v>
       </c>
       <c r="T122">
-        <v>3622528.688023045</v>
+        <v>3622528.6880230452</v>
       </c>
       <c r="X122">
         <v>0</v>
       </c>
       <c r="Y122">
-        <v>973629.5235242957</v>
+        <v>973629.52352429566</v>
       </c>
       <c r="Z122">
-        <v>943569.1577569206</v>
+        <v>943569.15775692055</v>
       </c>
       <c r="AA122">
-        <v>757166.3784885537</v>
+        <v>757166.37848855369</v>
       </c>
       <c r="AB122">
-        <v>601735.7568243822</v>
+        <v>601735.75682438223</v>
       </c>
       <c r="AC122">
-        <v>346427.8714288929</v>
-      </c>
-    </row>
-    <row r="123" spans="1:29">
+        <v>346427.87142889289</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -11294,7 +11312,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q123">
-        <v>6384.320665731579</v>
+        <v>6384.3206657315786</v>
       </c>
       <c r="R123">
         <v>0.8</v>
@@ -11303,7 +11321,7 @@
         <v>0</v>
       </c>
       <c r="T123">
-        <v>5107.456532585264</v>
+        <v>5107.4565325852636</v>
       </c>
       <c r="X123">
         <v>0</v>
@@ -11312,19 +11330,19 @@
         <v>1372.734600193291</v>
       </c>
       <c r="Z123">
-        <v>1330.352047912036</v>
+        <v>1330.3520479120359</v>
       </c>
       <c r="AA123">
-        <v>1067.540024969621</v>
+        <v>1067.5400249696211</v>
       </c>
       <c r="AB123">
-        <v>848.3961030437192</v>
+        <v>848.39610304371922</v>
       </c>
       <c r="AC123">
-        <v>488.4337564665964</v>
-      </c>
-    </row>
-    <row r="124" spans="1:29">
+        <v>488.43375646659638</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -11368,13 +11386,13 @@
         <v>0</v>
       </c>
       <c r="O124">
-        <v>5019.9</v>
+        <v>5019.8999999999996</v>
       </c>
       <c r="P124">
         <v>53.1145</v>
       </c>
       <c r="Q124">
-        <v>94510.91509851359</v>
+        <v>94510.915098513593</v>
       </c>
       <c r="R124">
         <v>0.8</v>
@@ -11383,28 +11401,28 @@
         <v>0</v>
       </c>
       <c r="T124">
-        <v>75608.73207881088</v>
+        <v>75608.732078810877</v>
       </c>
       <c r="X124">
         <v>0</v>
       </c>
       <c r="Y124">
-        <v>20321.41085081186</v>
+        <v>20321.410850811859</v>
       </c>
       <c r="Z124">
-        <v>19693.99659484998</v>
+        <v>19693.996594849981</v>
       </c>
       <c r="AA124">
-        <v>15803.43312104099</v>
+        <v>15803.433121040989</v>
       </c>
       <c r="AB124">
         <v>12559.31464956994</v>
       </c>
       <c r="AC124">
-        <v>7230.576862538093</v>
-      </c>
-    </row>
-    <row r="125" spans="1:29">
+        <v>7230.5768625380933</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -11463,28 +11481,28 @@
         <v>0</v>
       </c>
       <c r="T125">
-        <v>139909.0643797833</v>
+        <v>139909.06437978329</v>
       </c>
       <c r="X125">
         <v>0</v>
       </c>
       <c r="Y125">
-        <v>37603.45532643905</v>
+        <v>37603.455326439049</v>
       </c>
       <c r="Z125">
         <v>36442.46585979034</v>
       </c>
       <c r="AA125">
-        <v>29243.22999688237</v>
+        <v>29243.229996882372</v>
       </c>
       <c r="AB125">
-        <v>23240.19876488679</v>
+        <v>23240.198764886791</v>
       </c>
       <c r="AC125">
-        <v>13379.71443178477</v>
-      </c>
-    </row>
-    <row r="126" spans="1:29">
+        <v>13379.714431784771</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -11534,7 +11552,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q126">
-        <v>4706148.038671172</v>
+        <v>4706148.0386711722</v>
       </c>
       <c r="R126">
         <v>0.8</v>
@@ -11543,7 +11561,7 @@
         <v>0</v>
       </c>
       <c r="T126">
-        <v>3764918.430936938</v>
+        <v>3764918.4309369382</v>
       </c>
       <c r="X126">
         <v>0</v>
@@ -11552,19 +11570,19 @@
         <v>1011899.71252414</v>
       </c>
       <c r="Z126">
-        <v>980657.7721932107</v>
+        <v>980657.77219321067</v>
       </c>
       <c r="AA126">
-        <v>786928.1099366671</v>
+        <v>786928.10993666714</v>
       </c>
       <c r="AB126">
-        <v>625388.0193998596</v>
+        <v>625388.01939985959</v>
       </c>
       <c r="AC126">
-        <v>360044.8168830606</v>
-      </c>
-    </row>
-    <row r="127" spans="1:29">
+        <v>360044.81688306062</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -11608,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="O127">
-        <v>29834.4</v>
+        <v>29834.400000000001</v>
       </c>
       <c r="P127">
         <v>53.1145</v>
@@ -11623,7 +11641,7 @@
         <v>0</v>
       </c>
       <c r="T127">
-        <v>449359.7793446234</v>
+        <v>449359.77934462338</v>
       </c>
       <c r="X127">
         <v>0</v>
@@ -11635,16 +11653,16 @@
         <v>117045.8718319872</v>
       </c>
       <c r="AA127">
-        <v>93923.37399278578</v>
+        <v>93923.373992785782</v>
       </c>
       <c r="AB127">
-        <v>74642.84487362884</v>
+        <v>74642.844873628841</v>
       </c>
       <c r="AC127">
-        <v>42972.95212010329</v>
-      </c>
-    </row>
-    <row r="128" spans="1:29">
+        <v>42972.952120103291</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -11694,7 +11712,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q128">
-        <v>3448363.441244858</v>
+        <v>3448363.4412448579</v>
       </c>
       <c r="R128">
         <v>0.8</v>
@@ -11703,28 +11721,28 @@
         <v>0</v>
       </c>
       <c r="T128">
-        <v>2758690.752995886</v>
+        <v>2758690.7529958859</v>
       </c>
       <c r="X128">
         <v>0</v>
       </c>
       <c r="Y128">
-        <v>741455.2084212999</v>
+        <v>741455.20842129993</v>
       </c>
       <c r="Z128">
-        <v>718563.1183328739</v>
+        <v>718563.11833287391</v>
       </c>
       <c r="AA128">
-        <v>576610.4472055098</v>
+        <v>576610.44720550976</v>
       </c>
       <c r="AB128">
-        <v>458244.2296693951</v>
+        <v>458244.22966939508</v>
       </c>
       <c r="AC128">
-        <v>263817.7493668078</v>
-      </c>
-    </row>
-    <row r="129" spans="1:29">
+        <v>263817.74936680781</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -11774,7 +11792,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q129">
-        <v>910805.9004603262</v>
+        <v>910805.90046032623</v>
       </c>
       <c r="R129">
         <v>0.8</v>
@@ -11783,28 +11801,28 @@
         <v>0</v>
       </c>
       <c r="T129">
-        <v>728644.720368261</v>
+        <v>728644.72036826098</v>
       </c>
       <c r="X129">
         <v>0</v>
       </c>
       <c r="Y129">
-        <v>195838.3419450039</v>
+        <v>195838.34194500389</v>
       </c>
       <c r="Z129">
-        <v>189791.9228010633</v>
+        <v>189791.92280106331</v>
       </c>
       <c r="AA129">
-        <v>152298.3892301839</v>
+        <v>152298.38923018391</v>
       </c>
       <c r="AB129">
-        <v>121034.6749541316</v>
+        <v>121034.67495413159</v>
       </c>
       <c r="AC129">
-        <v>69681.39143787831</v>
-      </c>
-    </row>
-    <row r="130" spans="1:29">
+        <v>69681.391437878308</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -11848,7 +11866,7 @@
         <v>0</v>
       </c>
       <c r="O130">
-        <v>159507.7</v>
+        <v>159507.70000000001</v>
       </c>
       <c r="P130">
         <v>53.1145</v>
@@ -11869,22 +11887,22 @@
         <v>0</v>
       </c>
       <c r="Y130">
-        <v>645714.3579688923</v>
+        <v>645714.35796889232</v>
       </c>
       <c r="Z130">
-        <v>625778.222803712</v>
+        <v>625778.22280371201</v>
       </c>
       <c r="AA130">
-        <v>502155.2758503298</v>
+        <v>502155.27585032978</v>
       </c>
       <c r="AB130">
-        <v>399073.1674593533</v>
+        <v>399073.16745935328</v>
       </c>
       <c r="AC130">
-        <v>229752.1235515981</v>
-      </c>
-    </row>
-    <row r="131" spans="1:29">
+        <v>229752.12355159811</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -11928,13 +11946,13 @@
         <v>0</v>
       </c>
       <c r="O131">
-        <v>81610.09999999999</v>
+        <v>81610.099999999991</v>
       </c>
       <c r="P131">
         <v>53.1145</v>
       </c>
       <c r="Q131">
-        <v>1536493.801127752</v>
+        <v>1536493.8011277521</v>
       </c>
       <c r="R131">
         <v>0.8</v>
@@ -11949,22 +11967,22 @@
         <v>0</v>
       </c>
       <c r="Y131">
-        <v>330371.5953855336</v>
+        <v>330371.59538553358</v>
       </c>
       <c r="Z131">
-        <v>320171.5236369981</v>
+        <v>320171.52363699808</v>
       </c>
       <c r="AA131">
-        <v>256921.404281254</v>
+        <v>256921.40428125401</v>
       </c>
       <c r="AB131">
-        <v>204180.7455293667</v>
+        <v>204180.74552936669</v>
       </c>
       <c r="AC131">
         <v>117549.7720690492</v>
       </c>
     </row>
-    <row r="132" spans="1:29">
+    <row r="132" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -12014,7 +12032,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q132">
-        <v>3276903.670372497</v>
+        <v>3276903.6703724968</v>
       </c>
       <c r="R132">
         <v>0.8</v>
@@ -12023,28 +12041,28 @@
         <v>0</v>
       </c>
       <c r="T132">
-        <v>2621522.936297998</v>
+        <v>2621522.9362979978</v>
       </c>
       <c r="X132">
         <v>0</v>
       </c>
       <c r="Y132">
-        <v>704588.5201170819</v>
+        <v>704588.52011708193</v>
       </c>
       <c r="Z132">
-        <v>682834.6721508187</v>
+        <v>682834.67215081875</v>
       </c>
       <c r="AA132">
-        <v>547940.181775258</v>
+        <v>547940.18177525804</v>
       </c>
       <c r="AB132">
-        <v>435459.3776775958</v>
+        <v>435459.37767759582</v>
       </c>
       <c r="AC132">
-        <v>250700.1845772433</v>
-      </c>
-    </row>
-    <row r="133" spans="1:29">
+        <v>250700.18457724329</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -12091,10 +12109,10 @@
         <v>11377.8</v>
       </c>
       <c r="P133">
-        <v>52.32655</v>
+        <v>52.326549999999997</v>
       </c>
       <c r="Q133">
-        <v>217438.3749740811</v>
+        <v>217438.37497408109</v>
       </c>
       <c r="R133">
         <v>0.8</v>
@@ -12109,22 +12127,22 @@
         <v>0</v>
       </c>
       <c r="Y133">
-        <v>46752.84910716817</v>
+        <v>46752.849107168171</v>
       </c>
       <c r="Z133">
-        <v>45309.37629654392</v>
+        <v>45309.376296543916</v>
       </c>
       <c r="AA133">
-        <v>36358.4757725488</v>
+        <v>36358.475772548802</v>
       </c>
       <c r="AB133">
-        <v>28894.83151595903</v>
+        <v>28894.831515959031</v>
       </c>
       <c r="AC133">
-        <v>16635.16728704491</v>
-      </c>
-    </row>
-    <row r="134" spans="1:29">
+        <v>16635.167287044911</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -12174,7 +12192,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q134">
-        <v>1978203.692023835</v>
+        <v>1978203.6920238349</v>
       </c>
       <c r="R134">
         <v>0.8</v>
@@ -12192,19 +12210,19 @@
         <v>425346.5319884675</v>
       </c>
       <c r="Z134">
-        <v>412214.152556119</v>
+        <v>412214.15255611902</v>
       </c>
       <c r="AA134">
-        <v>330780.9443396949</v>
+        <v>330780.94433969492</v>
       </c>
       <c r="AB134">
-        <v>262878.4472478253</v>
+        <v>262878.44724782527</v>
       </c>
       <c r="AC134">
         <v>151342.8774869616</v>
       </c>
     </row>
-    <row r="135" spans="1:29">
+    <row r="135" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -12248,7 +12266,7 @@
         <v>0</v>
       </c>
       <c r="O135">
-        <v>107825.6</v>
+        <v>107825.60000000001</v>
       </c>
       <c r="P135">
         <v>53.1145</v>
@@ -12269,22 +12287,22 @@
         <v>0</v>
       </c>
       <c r="Y135">
-        <v>436496.4078637621</v>
+        <v>436496.40786376211</v>
       </c>
       <c r="Z135">
-        <v>423019.7811186792</v>
+        <v>423019.78111867921</v>
       </c>
       <c r="AA135">
-        <v>339451.9130532715</v>
+        <v>339451.91305327148</v>
       </c>
       <c r="AB135">
-        <v>269769.4451440604</v>
+        <v>269769.44514406042</v>
       </c>
       <c r="AC135">
-        <v>155310.1234186513</v>
-      </c>
-    </row>
-    <row r="136" spans="1:29">
+        <v>155310.12341865129</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -12331,10 +12349,10 @@
         <v>25.1</v>
       </c>
       <c r="P136">
-        <v>74.203</v>
+        <v>74.203000000000003</v>
       </c>
       <c r="Q136">
-        <v>338.2612562834387</v>
+        <v>338.26125628343868</v>
       </c>
       <c r="R136">
         <v>0.8</v>
@@ -12343,7 +12361,7 @@
         <v>0</v>
       </c>
       <c r="T136">
-        <v>270.6090050267509</v>
+        <v>270.60900502675088</v>
       </c>
       <c r="U136" t="s">
         <v>334</v>
@@ -12355,22 +12373,22 @@
         <v>0</v>
       </c>
       <c r="Y136">
-        <v>72.73176814215007</v>
+        <v>72.731768142150074</v>
       </c>
       <c r="Z136">
-        <v>70.48620810063973</v>
+        <v>70.486208100639729</v>
       </c>
       <c r="AA136">
-        <v>56.56160598532501</v>
+        <v>56.561605985325009</v>
       </c>
       <c r="AB136">
-        <v>44.9506763001318</v>
+        <v>44.950676300131803</v>
       </c>
       <c r="AC136">
-        <v>25.87874649850434</v>
-      </c>
-    </row>
-    <row r="137" spans="1:29">
+        <v>25.878746498504341</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -12414,7 +12432,7 @@
         <v>0</v>
       </c>
       <c r="O137">
-        <v>180313.6</v>
+        <v>180313.60000000001</v>
       </c>
       <c r="P137">
         <v>53.1145</v>
@@ -12429,28 +12447,28 @@
         <v>0</v>
       </c>
       <c r="T137">
-        <v>2715847.461615943</v>
+        <v>2715847.4616159429</v>
       </c>
       <c r="X137">
         <v>0</v>
       </c>
       <c r="Y137">
-        <v>729940.1875712562</v>
+        <v>729940.18757125619</v>
       </c>
       <c r="Z137">
-        <v>707403.6184794803</v>
+        <v>707403.61847948027</v>
       </c>
       <c r="AA137">
         <v>567655.5147341853</v>
       </c>
       <c r="AB137">
-        <v>451127.5599108936</v>
+        <v>451127.55991089361</v>
       </c>
       <c r="AC137">
         <v>259720.5809201276</v>
       </c>
     </row>
-    <row r="138" spans="1:29">
+    <row r="138" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -12494,7 +12512,7 @@
         <v>0</v>
       </c>
       <c r="O138">
-        <v>84242.60000000001</v>
+        <v>84242.6</v>
       </c>
       <c r="P138">
         <v>53.1145</v>
@@ -12509,28 +12527,28 @@
         <v>0</v>
       </c>
       <c r="T138">
-        <v>1268845.230586751</v>
+        <v>1268845.2305867509</v>
       </c>
       <c r="X138">
         <v>0</v>
       </c>
       <c r="Y138">
-        <v>341028.4040998034</v>
+        <v>341028.40409980342</v>
       </c>
       <c r="Z138">
-        <v>330499.3082613816</v>
+        <v>330499.30826138158</v>
       </c>
       <c r="AA138">
-        <v>265208.9274771625</v>
+        <v>265208.92747716251</v>
       </c>
       <c r="AB138">
-        <v>210767.0113543817</v>
+        <v>210767.01135438171</v>
       </c>
       <c r="AC138">
         <v>121341.5793940221</v>
       </c>
     </row>
-    <row r="139" spans="1:29">
+    <row r="139" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -12580,7 +12598,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q139">
-        <v>2179348.388858033</v>
+        <v>2179348.3888580329</v>
       </c>
       <c r="R139">
         <v>0.8</v>
@@ -12589,28 +12607,28 @@
         <v>0</v>
       </c>
       <c r="T139">
-        <v>1743478.711086427</v>
+        <v>1743478.7110864271</v>
       </c>
       <c r="X139">
         <v>0</v>
       </c>
       <c r="Y139">
-        <v>468595.9706439823</v>
+        <v>468595.97064398229</v>
       </c>
       <c r="Z139">
-        <v>454128.2845946854</v>
+        <v>454128.28459468542</v>
       </c>
       <c r="AA139">
         <v>364414.908848005</v>
       </c>
       <c r="AB139">
-        <v>289608.0533996631</v>
+        <v>289608.05339966313</v>
       </c>
       <c r="AC139">
-        <v>166731.4936000911</v>
-      </c>
-    </row>
-    <row r="140" spans="1:29">
+        <v>166731.49360009111</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -12657,7 +12675,7 @@
         <v>121.1</v>
       </c>
       <c r="P140">
-        <v>74.203</v>
+        <v>74.203000000000003</v>
       </c>
       <c r="Q140">
         <v>1632.009487487029</v>
@@ -12681,22 +12699,22 @@
         <v>0</v>
       </c>
       <c r="Y140">
-        <v>350.9090486858317</v>
+        <v>350.90904868583169</v>
       </c>
       <c r="Z140">
-        <v>340.0748924696204</v>
+        <v>340.07489246962041</v>
       </c>
       <c r="AA140">
         <v>272.8928480009107</v>
       </c>
       <c r="AB140">
-        <v>216.8735816711539</v>
+        <v>216.87358167115389</v>
       </c>
       <c r="AC140">
         <v>124.8572191621066</v>
       </c>
     </row>
-    <row r="141" spans="1:29">
+    <row r="141" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -12740,7 +12758,7 @@
         <v>0</v>
       </c>
       <c r="O141">
-        <v>79209.59999999999</v>
+        <v>79209.599999999991</v>
       </c>
       <c r="P141">
         <v>53.1145</v>
@@ -12764,19 +12782,19 @@
         <v>320653.9622160733</v>
       </c>
       <c r="Z141">
-        <v>310753.9179424748</v>
+        <v>310753.91794247483</v>
       </c>
       <c r="AA141">
         <v>249364.2534999518</v>
       </c>
       <c r="AB141">
-        <v>198174.9217447707</v>
+        <v>198174.92174477069</v>
       </c>
       <c r="AC141">
         <v>114092.1335187747</v>
       </c>
     </row>
-    <row r="142" spans="1:29">
+    <row r="142" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -12820,7 +12838,7 @@
         <v>0</v>
       </c>
       <c r="O142">
-        <v>70827.2</v>
+        <v>70827.199999999997</v>
       </c>
       <c r="P142">
         <v>53.1145</v>
@@ -12841,13 +12859,13 @@
         <v>0</v>
       </c>
       <c r="Y142">
-        <v>286720.5782212039</v>
+        <v>286720.57822120388</v>
       </c>
       <c r="Z142">
-        <v>277868.2116422158</v>
+        <v>277868.21164221579</v>
       </c>
       <c r="AA142">
-        <v>222975.1426025608</v>
+        <v>222975.14260256081</v>
       </c>
       <c r="AB142">
         <v>177202.9503671428</v>
@@ -12856,7 +12874,7 @@
         <v>102018.2699970832</v>
       </c>
     </row>
-    <row r="143" spans="1:29">
+    <row r="143" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -12915,28 +12933,28 @@
         <v>0</v>
       </c>
       <c r="T143">
-        <v>2888874.412825123</v>
+        <v>2888874.4128251229</v>
       </c>
       <c r="X143">
         <v>0</v>
       </c>
       <c r="Y143">
-        <v>776444.7600870348</v>
+        <v>776444.76008703478</v>
       </c>
       <c r="Z143">
-        <v>752472.3836107216</v>
+        <v>752472.38361072156</v>
       </c>
       <c r="AA143">
-        <v>603820.9122536369</v>
+        <v>603820.91225363687</v>
       </c>
       <c r="AB143">
         <v>479868.9481519601</v>
       </c>
       <c r="AC143">
-        <v>276267.4087217702</v>
-      </c>
-    </row>
-    <row r="144" spans="1:29">
+        <v>276267.40872177022</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -13001,22 +13019,22 @@
         <v>0</v>
       </c>
       <c r="Y144">
-        <v>414146.4587995711</v>
+        <v>414146.45879957109</v>
       </c>
       <c r="Z144">
         <v>401359.8764990319</v>
       </c>
       <c r="AA144">
-        <v>322070.9384798204</v>
+        <v>322070.93847982038</v>
       </c>
       <c r="AB144">
-        <v>255956.4257252919</v>
+        <v>255956.42572529189</v>
       </c>
       <c r="AC144">
-        <v>147357.7708104175</v>
-      </c>
-    </row>
-    <row r="145" spans="1:29">
+        <v>147357.77081041751</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -13060,13 +13078,13 @@
         <v>0</v>
       </c>
       <c r="O145">
-        <v>47.40000000000001</v>
+        <v>47.400000000000013</v>
       </c>
       <c r="P145">
-        <v>74.203</v>
+        <v>74.203000000000003</v>
       </c>
       <c r="Q145">
-        <v>638.7881891567727</v>
+        <v>638.78818915677266</v>
       </c>
       <c r="R145">
         <v>0.8</v>
@@ -13075,28 +13093,28 @@
         <v>0</v>
       </c>
       <c r="T145">
-        <v>511.0305513254182</v>
+        <v>511.03055132541817</v>
       </c>
       <c r="X145">
         <v>0</v>
       </c>
       <c r="Y145">
-        <v>137.3500322684428</v>
+        <v>137.35003226844279</v>
       </c>
       <c r="Z145">
-        <v>133.1094129071842</v>
+        <v>133.10941290718421</v>
       </c>
       <c r="AA145">
         <v>106.8135507451955</v>
       </c>
       <c r="AB145">
-        <v>84.88693452694214</v>
+        <v>84.886934526942142</v>
       </c>
       <c r="AC145">
-        <v>48.87062087765364</v>
-      </c>
-    </row>
-    <row r="146" spans="1:29">
+        <v>48.870620877653643</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -13140,7 +13158,7 @@
         <v>0</v>
       </c>
       <c r="O146">
-        <v>87265.70000000001</v>
+        <v>87265.700000000012</v>
       </c>
       <c r="P146">
         <v>53.1145</v>
@@ -13161,13 +13179,13 @@
         <v>0</v>
       </c>
       <c r="Y146">
-        <v>353266.4281925323</v>
+        <v>353266.42819253227</v>
       </c>
       <c r="Z146">
-        <v>342359.488963366</v>
+        <v>342359.48896336602</v>
       </c>
       <c r="AA146">
-        <v>274726.1207814552</v>
+        <v>274726.12078145519</v>
       </c>
       <c r="AB146">
         <v>218330.5214077922</v>
@@ -13176,7 +13194,7 @@
         <v>125696.0001819141</v>
       </c>
     </row>
-    <row r="147" spans="1:29">
+    <row r="147" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -13220,7 +13238,7 @@
         <v>0</v>
       </c>
       <c r="O147">
-        <v>99740.8</v>
+        <v>99740.800000000003</v>
       </c>
       <c r="P147">
         <v>53.1145</v>
@@ -13241,22 +13259,22 @@
         <v>0</v>
       </c>
       <c r="Y147">
-        <v>403767.7593953376</v>
+        <v>403767.75939533761</v>
       </c>
       <c r="Z147">
-        <v>391301.6146870682</v>
+        <v>391301.61468706821</v>
       </c>
       <c r="AA147">
-        <v>313999.6936670303</v>
+        <v>313999.69366703031</v>
       </c>
       <c r="AB147">
-        <v>249542.0407975907</v>
+        <v>249542.04079759069</v>
       </c>
       <c r="AC147">
         <v>143664.9177734695</v>
       </c>
     </row>
-    <row r="148" spans="1:29">
+    <row r="148" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -13330,19 +13348,19 @@
         <v>220853.2016175914</v>
       </c>
       <c r="Z148">
-        <v>214034.4601341888</v>
+        <v>214034.46013418879</v>
       </c>
       <c r="AA148">
-        <v>171751.79553008</v>
+        <v>171751.79553008001</v>
       </c>
       <c r="AB148">
-        <v>136494.6986625894</v>
+        <v>136494.69866258939</v>
       </c>
       <c r="AC148">
-        <v>78581.94794431901</v>
-      </c>
-    </row>
-    <row r="149" spans="1:29">
+        <v>78581.947944319007</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -13386,13 +13404,13 @@
         <v>0</v>
       </c>
       <c r="O149">
-        <v>138982.7</v>
+        <v>138982.70000000001</v>
       </c>
       <c r="P149">
         <v>53.1145</v>
       </c>
       <c r="Q149">
-        <v>2616662.11674778</v>
+        <v>2616662.1167477798</v>
       </c>
       <c r="R149">
         <v>0.8</v>
@@ -13410,19 +13428,19 @@
         <v>562625.659446429</v>
       </c>
       <c r="Z149">
-        <v>545254.849806382</v>
+        <v>545254.84980638197</v>
       </c>
       <c r="AA149">
         <v>437539.3542564002</v>
       </c>
       <c r="AB149">
-        <v>347721.5602196825</v>
+        <v>347721.56021968252</v>
       </c>
       <c r="AC149">
-        <v>200188.2696693306</v>
-      </c>
-    </row>
-    <row r="150" spans="1:29">
+        <v>200188.26966933059</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -13466,7 +13484,7 @@
         <v>0</v>
       </c>
       <c r="O150">
-        <v>79542.60000000001</v>
+        <v>79542.600000000006</v>
       </c>
       <c r="P150">
         <v>53.1145</v>
@@ -13481,28 +13499,28 @@
         <v>0</v>
       </c>
       <c r="T150">
-        <v>1198054.768471886</v>
+        <v>1198054.7684718859</v>
       </c>
       <c r="X150">
         <v>0</v>
       </c>
       <c r="Y150">
-        <v>322002.0029765109</v>
+        <v>322002.00297651091</v>
       </c>
       <c r="Z150">
-        <v>312060.3385616277</v>
+        <v>312060.33856162772</v>
       </c>
       <c r="AA150">
-        <v>250412.5897674685</v>
+        <v>250412.58976746851</v>
       </c>
       <c r="AB150">
         <v>199008.0562252001</v>
       </c>
       <c r="AC150">
-        <v>114571.780941079</v>
-      </c>
-    </row>
-    <row r="151" spans="1:29">
+        <v>114571.78094107901</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -13546,13 +13564,13 @@
         <v>0</v>
       </c>
       <c r="O151">
-        <v>138337.2</v>
+        <v>138337.20000000001</v>
       </c>
       <c r="P151">
         <v>53.1145</v>
       </c>
       <c r="Q151">
-        <v>2604509.12650971</v>
+        <v>2604509.1265097102</v>
       </c>
       <c r="R151">
         <v>0.8</v>
@@ -13567,22 +13585,22 @@
         <v>0</v>
       </c>
       <c r="Y151">
-        <v>560012.5654198152</v>
+        <v>560012.56541981525</v>
       </c>
       <c r="Z151">
-        <v>542722.4338614478</v>
+        <v>542722.43386144785</v>
       </c>
       <c r="AA151">
-        <v>435507.2189390371</v>
+        <v>435507.21893903712</v>
       </c>
       <c r="AB151">
-        <v>346106.58031843</v>
+        <v>346106.58031842997</v>
       </c>
       <c r="AC151">
-        <v>199258.5026690382</v>
-      </c>
-    </row>
-    <row r="152" spans="1:29">
+        <v>199258.50266903819</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -13641,28 +13659,28 @@
         <v>0</v>
       </c>
       <c r="T152">
-        <v>1451154.769413249</v>
+        <v>1451154.7694132491</v>
       </c>
       <c r="X152">
         <v>0</v>
       </c>
       <c r="Y152">
-        <v>390027.8640650043</v>
+        <v>390027.86406500428</v>
       </c>
       <c r="Z152">
-        <v>377985.9323343161</v>
+        <v>377985.93233431608</v>
       </c>
       <c r="AA152">
-        <v>303314.5341307597</v>
+        <v>303314.53413075971</v>
       </c>
       <c r="AB152">
         <v>241050.323860579</v>
       </c>
       <c r="AC152">
-        <v>138776.1150225899</v>
-      </c>
-    </row>
-    <row r="153" spans="1:29">
+        <v>138776.11502258989</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -13712,7 +13730,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q153">
-        <v>4324962.110158243</v>
+        <v>4324962.1101582432</v>
       </c>
       <c r="R153">
         <v>0.8</v>
@@ -13721,28 +13739,28 @@
         <v>0</v>
       </c>
       <c r="T153">
-        <v>3459969.688126595</v>
+        <v>3459969.6881265952</v>
       </c>
       <c r="X153">
         <v>0</v>
       </c>
       <c r="Y153">
-        <v>929938.4294724932</v>
+        <v>929938.42947249324</v>
       </c>
       <c r="Z153">
-        <v>901227.0062302175</v>
+        <v>901227.00623021752</v>
       </c>
       <c r="AA153">
-        <v>723188.950055961</v>
+        <v>723188.95005596103</v>
       </c>
       <c r="AB153">
-        <v>574733.1927992267</v>
+        <v>574733.19279922673</v>
       </c>
       <c r="AC153">
-        <v>330882.1095686962</v>
-      </c>
-    </row>
-    <row r="154" spans="1:29">
+        <v>330882.10956869618</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -13807,22 +13825,22 @@
         <v>0</v>
       </c>
       <c r="Y154">
-        <v>423179.5463456381</v>
+        <v>423179.54634563811</v>
       </c>
       <c r="Z154">
-        <v>410114.0716028683</v>
+        <v>410114.07160286832</v>
       </c>
       <c r="AA154">
-        <v>329095.7359192696</v>
+        <v>329095.73591926962</v>
       </c>
       <c r="AB154">
         <v>261539.1773157719</v>
       </c>
       <c r="AC154">
-        <v>150571.8406546509</v>
-      </c>
-    </row>
-    <row r="155" spans="1:29">
+        <v>150571.84065465091</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -13881,28 +13899,28 @@
         <v>0</v>
       </c>
       <c r="T155">
-        <v>3181282.700580821</v>
+        <v>3181282.7005808209</v>
       </c>
       <c r="X155">
         <v>0</v>
       </c>
       <c r="Y155">
-        <v>855035.5364205426</v>
+        <v>855035.53642054263</v>
       </c>
       <c r="Z155">
-        <v>828636.7057073286</v>
+        <v>828636.70570732863</v>
       </c>
       <c r="AA155">
-        <v>664938.9166498554</v>
+        <v>664938.91664985544</v>
       </c>
       <c r="AB155">
-        <v>528440.6883609854</v>
+        <v>528440.68836098537</v>
       </c>
       <c r="AC155">
-        <v>304230.8534421088</v>
-      </c>
-    </row>
-    <row r="156" spans="1:29">
+        <v>304230.85344210878</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -13946,13 +13964,13 @@
         <v>0</v>
       </c>
       <c r="O156">
-        <v>152667.3</v>
+        <v>152667.29999999999</v>
       </c>
       <c r="P156">
         <v>53.1145</v>
       </c>
       <c r="Q156">
-        <v>2874305.509794878</v>
+        <v>2874305.5097948778</v>
       </c>
       <c r="R156">
         <v>0.8</v>
@@ -13961,28 +13979,28 @@
         <v>0</v>
       </c>
       <c r="T156">
-        <v>2299444.407835902</v>
+        <v>2299444.4078359022</v>
       </c>
       <c r="X156">
         <v>0</v>
       </c>
       <c r="Y156">
-        <v>618023.2528106436</v>
+        <v>618023.25281064364</v>
       </c>
       <c r="Z156">
-        <v>598942.0678389893</v>
+        <v>598942.06783898931</v>
       </c>
       <c r="AA156">
-        <v>480620.6229845021</v>
+        <v>480620.62298450212</v>
       </c>
       <c r="AB156">
         <v>381959.1341262355</v>
       </c>
       <c r="AC156">
-        <v>219899.3300755318</v>
-      </c>
-    </row>
-    <row r="157" spans="1:29">
+        <v>219899.33007553179</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -14029,10 +14047,10 @@
         <v>123.7</v>
       </c>
       <c r="P157">
-        <v>52.32655</v>
+        <v>52.326549999999997</v>
       </c>
       <c r="Q157">
-        <v>2364.000684165113</v>
+        <v>2364.0006841651129</v>
       </c>
       <c r="R157">
         <v>0.8</v>
@@ -14047,13 +14065,13 @@
         <v>0</v>
       </c>
       <c r="Y157">
-        <v>508.2992700308234</v>
+        <v>508.29927003082338</v>
       </c>
       <c r="Z157">
-        <v>492.6057627909159</v>
+        <v>492.60576279091589</v>
       </c>
       <c r="AA157">
-        <v>395.2911330014842</v>
+        <v>395.29113300148418</v>
       </c>
       <c r="AB157">
         <v>314.1460263428898</v>
@@ -14062,7 +14080,7 @@
         <v>180.8583551659772</v>
       </c>
     </row>
-    <row r="158" spans="1:29">
+    <row r="158" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -14112,7 +14130,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q158">
-        <v>3404921.443297028</v>
+        <v>3404921.4432970281</v>
       </c>
       <c r="R158">
         <v>0.8</v>
@@ -14121,28 +14139,28 @@
         <v>0</v>
       </c>
       <c r="T158">
-        <v>2723937.154637623</v>
+        <v>2723937.1546376231</v>
       </c>
       <c r="X158">
         <v>0</v>
       </c>
       <c r="Y158">
-        <v>732114.4599208989</v>
+        <v>732114.45992089889</v>
       </c>
       <c r="Z158">
-        <v>709510.7611658075</v>
+        <v>709510.76116580749</v>
       </c>
       <c r="AA158">
-        <v>569346.3898371379</v>
+        <v>569346.38983713789</v>
       </c>
       <c r="AB158">
-        <v>452471.3332725709</v>
+        <v>452471.33327257092</v>
       </c>
       <c r="AC158">
         <v>260494.2104412076</v>
       </c>
     </row>
-    <row r="159" spans="1:29">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -14192,7 +14210,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q159">
-        <v>3343636.859991151</v>
+        <v>3343636.8599911509</v>
       </c>
       <c r="R159">
         <v>0.8</v>
@@ -14201,28 +14219,28 @@
         <v>0</v>
       </c>
       <c r="T159">
-        <v>2674909.487992921</v>
+        <v>2674909.4879929209</v>
       </c>
       <c r="X159">
         <v>0</v>
       </c>
       <c r="Y159">
-        <v>718937.2602833608</v>
+        <v>718937.26028336084</v>
       </c>
       <c r="Z159">
-        <v>696740.401533963</v>
+        <v>696740.40153396304</v>
       </c>
       <c r="AA159">
-        <v>559098.824118239</v>
+        <v>559098.82411823899</v>
       </c>
       <c r="AB159">
         <v>444327.3811787414</v>
       </c>
       <c r="AC159">
-        <v>255805.6208786172</v>
-      </c>
-    </row>
-    <row r="160" spans="1:29">
+        <v>255805.62087861719</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -14281,28 +14299,28 @@
         <v>0</v>
       </c>
       <c r="T160">
-        <v>2403413.003981964</v>
+        <v>2403413.0039819642</v>
       </c>
       <c r="X160">
         <v>0</v>
       </c>
       <c r="Y160">
-        <v>645966.9638050825</v>
+        <v>645966.96380508249</v>
       </c>
       <c r="Z160">
-        <v>626023.029550364</v>
+        <v>626023.02955036401</v>
       </c>
       <c r="AA160">
-        <v>502351.7208446031</v>
+        <v>502351.72084460309</v>
       </c>
       <c r="AB160">
-        <v>399229.2863529833</v>
+        <v>399229.28635298333</v>
       </c>
       <c r="AC160">
         <v>229842.0034289308</v>
       </c>
     </row>
-    <row r="161" spans="1:29">
+    <row r="161" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -14361,28 +14379,28 @@
         <v>0</v>
       </c>
       <c r="T161">
-        <v>809246.4392962374</v>
+        <v>809246.43929623743</v>
       </c>
       <c r="X161">
         <v>0</v>
       </c>
       <c r="Y161">
-        <v>217501.7213005756</v>
+        <v>217501.72130057559</v>
       </c>
       <c r="Z161">
-        <v>210786.4552375023</v>
+        <v>210786.45523750229</v>
       </c>
       <c r="AA161">
-        <v>169145.4363833022</v>
+        <v>169145.43638330221</v>
       </c>
       <c r="AB161">
-        <v>134423.3712261108</v>
+        <v>134423.37122611079</v>
       </c>
       <c r="AC161">
-        <v>77389.45514874632</v>
-      </c>
-    </row>
-    <row r="162" spans="1:29">
+        <v>77389.455148746318</v>
+      </c>
+    </row>
+    <row r="162" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -14441,28 +14459,28 @@
         <v>0</v>
       </c>
       <c r="T162">
-        <v>733503.6571934219</v>
+        <v>733503.65719342185</v>
       </c>
       <c r="X162">
         <v>0</v>
       </c>
       <c r="Y162">
-        <v>197144.2817327431</v>
+        <v>197144.28173274311</v>
       </c>
       <c r="Z162">
-        <v>191057.5422957742</v>
+        <v>191057.54229577421</v>
       </c>
       <c r="AA162">
-        <v>153313.9846653216</v>
+        <v>153313.98466532159</v>
       </c>
       <c r="AB162">
-        <v>121841.7896189558</v>
+        <v>121841.78961895579</v>
       </c>
       <c r="AC162">
-        <v>70146.05888062714</v>
-      </c>
-    </row>
-    <row r="163" spans="1:29">
+        <v>70146.058880627141</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -14527,22 +14545,22 @@
         <v>0</v>
       </c>
       <c r="Y163">
-        <v>436181.86501966</v>
+        <v>436181.86501965998</v>
       </c>
       <c r="Z163">
-        <v>422714.9496408767</v>
+        <v>422714.94964087667</v>
       </c>
       <c r="AA163">
-        <v>339207.3012575177</v>
+        <v>339207.30125751771</v>
       </c>
       <c r="AB163">
-        <v>269575.047098627</v>
+        <v>269575.04709862702</v>
       </c>
       <c r="AC163">
         <v>155198.2056867803</v>
       </c>
     </row>
-    <row r="164" spans="1:29">
+    <row r="164" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -14601,28 +14619,28 @@
         <v>0</v>
       </c>
       <c r="T164">
-        <v>1302082.105639703</v>
+        <v>1302082.1056397031</v>
       </c>
       <c r="X164">
         <v>0</v>
       </c>
       <c r="Y164">
-        <v>349961.5018357118</v>
+        <v>349961.50183571182</v>
       </c>
       <c r="Z164">
-        <v>339156.6006946682</v>
+        <v>339156.60069466819</v>
       </c>
       <c r="AA164">
-        <v>272155.9654397118</v>
+        <v>272155.96543971181</v>
       </c>
       <c r="AB164">
-        <v>216287.9658827998</v>
+        <v>216287.96588279979</v>
       </c>
       <c r="AC164">
         <v>124520.0717868114</v>
       </c>
     </row>
-    <row r="165" spans="1:29">
+    <row r="165" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -14681,28 +14699,28 @@
         <v>0</v>
       </c>
       <c r="T165">
-        <v>2580155.701362152</v>
+        <v>2580155.7013621521</v>
       </c>
       <c r="X165">
         <v>0</v>
       </c>
       <c r="Y165">
-        <v>693470.2199713112</v>
+        <v>693470.21997131116</v>
       </c>
       <c r="Z165">
-        <v>672059.6444315902</v>
+        <v>672059.64443159022</v>
       </c>
       <c r="AA165">
-        <v>539293.7686859656</v>
+        <v>539293.76868596557</v>
       </c>
       <c r="AB165">
-        <v>428587.8946430644</v>
+        <v>428587.89464306441</v>
       </c>
       <c r="AC165">
-        <v>246744.1736302203</v>
-      </c>
-    </row>
-    <row r="166" spans="1:29">
+        <v>246744.17363022029</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -14746,7 +14764,7 @@
         <v>0</v>
       </c>
       <c r="O166">
-        <v>68591.60000000001</v>
+        <v>68591.600000000006</v>
       </c>
       <c r="P166">
         <v>53.1145</v>
@@ -14767,22 +14785,22 @@
         <v>0</v>
       </c>
       <c r="Y166">
-        <v>277670.4883592395</v>
+        <v>277670.48835923948</v>
       </c>
       <c r="Z166">
-        <v>269097.5391612009</v>
+        <v>269097.53916120093</v>
       </c>
       <c r="AA166">
-        <v>215937.1229038816</v>
+        <v>215937.12290388159</v>
       </c>
       <c r="AB166">
-        <v>171609.6907742069</v>
+        <v>171609.69077420689</v>
       </c>
       <c r="AC166">
-        <v>98798.15054572158</v>
-      </c>
-    </row>
-    <row r="167" spans="1:29">
+        <v>98798.150545721583</v>
+      </c>
+    </row>
+    <row r="167" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -14850,19 +14868,19 @@
         <v>486913.5371211709</v>
       </c>
       <c r="Z167">
-        <v>471880.3045934973</v>
+        <v>471880.30459349731</v>
       </c>
       <c r="AA167">
-        <v>378660.0042740888</v>
+        <v>378660.00427408877</v>
       </c>
       <c r="AB167">
-        <v>300928.9249026491</v>
+        <v>300928.92490264907</v>
       </c>
       <c r="AC167">
         <v>173249.0810510958</v>
       </c>
     </row>
-    <row r="168" spans="1:29">
+    <row r="168" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -14921,19 +14939,19 @@
         <v>0</v>
       </c>
       <c r="T168">
-        <v>803034.9527906693</v>
+        <v>803034.95279066928</v>
       </c>
       <c r="X168">
         <v>0</v>
       </c>
       <c r="Y168">
-        <v>215832.255806268</v>
+        <v>215832.25580626799</v>
       </c>
       <c r="Z168">
-        <v>209168.5337259751</v>
+        <v>209168.53372597511</v>
       </c>
       <c r="AA168">
-        <v>167847.1364532005</v>
+        <v>167847.13645320051</v>
       </c>
       <c r="AB168">
         <v>133391.5854611588</v>
@@ -14942,7 +14960,7 @@
         <v>76795.4413440668</v>
       </c>
     </row>
-    <row r="169" spans="1:29">
+    <row r="169" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -14986,13 +15004,13 @@
         <v>0</v>
       </c>
       <c r="O169">
-        <v>40774.7</v>
+        <v>40774.699999999997</v>
       </c>
       <c r="P169">
         <v>53.1145</v>
       </c>
       <c r="Q169">
-        <v>767675.4935093054</v>
+        <v>767675.49350930541</v>
       </c>
       <c r="R169">
         <v>0.8</v>
@@ -15010,19 +15028,19 @@
         <v>165062.9357195558</v>
       </c>
       <c r="Z169">
-        <v>159966.6931524592</v>
+        <v>159966.69315245919</v>
       </c>
       <c r="AA169">
-        <v>128365.1555769059</v>
+        <v>128365.15557690591</v>
       </c>
       <c r="AB169">
         <v>102014.439937413</v>
       </c>
       <c r="AC169">
-        <v>58731.17042111038</v>
-      </c>
-    </row>
-    <row r="170" spans="1:29">
+        <v>58731.170421110379</v>
+      </c>
+    </row>
+    <row r="170" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -15072,7 +15090,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q170">
-        <v>3551162.112040968</v>
+        <v>3551162.1120409681</v>
       </c>
       <c r="R170">
         <v>0.8</v>
@@ -15081,28 +15099,28 @@
         <v>0</v>
       </c>
       <c r="T170">
-        <v>2840929.689632775</v>
+        <v>2840929.6896327748</v>
       </c>
       <c r="X170">
         <v>0</v>
       </c>
       <c r="Y170">
-        <v>763558.6239049785</v>
+        <v>763558.62390497851</v>
       </c>
       <c r="Z170">
-        <v>739984.1009834328</v>
+        <v>739984.10098343284</v>
       </c>
       <c r="AA170">
-        <v>593799.6990201267</v>
+        <v>593799.69902012672</v>
       </c>
       <c r="AB170">
-        <v>471904.8830525535</v>
+        <v>471904.88305255352</v>
       </c>
       <c r="AC170">
-        <v>271682.3826716832</v>
-      </c>
-    </row>
-    <row r="171" spans="1:29">
+        <v>271682.38267168321</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -15152,7 +15170,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q171">
-        <v>1654350.506923721</v>
+        <v>1654350.5069237209</v>
       </c>
       <c r="R171">
         <v>0.8</v>
@@ -15161,28 +15179,28 @@
         <v>0</v>
       </c>
       <c r="T171">
-        <v>1323480.405538977</v>
+        <v>1323480.4055389769</v>
       </c>
       <c r="X171">
         <v>0</v>
       </c>
       <c r="Y171">
-        <v>355712.7375965334</v>
+        <v>355712.73759653338</v>
       </c>
       <c r="Z171">
-        <v>344730.2696845492</v>
+        <v>344730.26968454919</v>
       </c>
       <c r="AA171">
-        <v>276628.5520320867</v>
+        <v>276628.55203208671</v>
       </c>
       <c r="AB171">
-        <v>219842.4228087633</v>
+        <v>219842.42280876331</v>
       </c>
       <c r="AC171">
         <v>126566.4234170446</v>
       </c>
     </row>
-    <row r="172" spans="1:29">
+    <row r="172" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -15241,28 +15259,28 @@
         <v>0</v>
       </c>
       <c r="T172">
-        <v>825267.6764348719</v>
+        <v>825267.67643487186</v>
       </c>
       <c r="X172">
         <v>0</v>
       </c>
       <c r="Y172">
-        <v>221807.7602101174</v>
+        <v>221807.76021011741</v>
       </c>
       <c r="Z172">
-        <v>214959.5471672105</v>
+        <v>214959.54716721049</v>
       </c>
       <c r="AA172">
-        <v>172494.1309411323</v>
+        <v>172494.13094113229</v>
       </c>
       <c r="AB172">
-        <v>137084.6479433258</v>
+        <v>137084.64794332581</v>
       </c>
       <c r="AC172">
-        <v>78921.5901730858</v>
-      </c>
-    </row>
-    <row r="173" spans="1:29">
+        <v>78921.590173085802</v>
+      </c>
+    </row>
+    <row r="173" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -15333,22 +15351,22 @@
         <v>0</v>
       </c>
       <c r="Y173">
-        <v>3361.600743145116</v>
+        <v>3361.6007431451162</v>
       </c>
       <c r="Z173">
         <v>3257.812859292701</v>
       </c>
       <c r="AA173">
-        <v>2614.229539176565</v>
+        <v>2614.2295391765651</v>
       </c>
       <c r="AB173">
         <v>2077.582199845192</v>
       </c>
       <c r="AC173">
-        <v>1196.093752196584</v>
-      </c>
-    </row>
-    <row r="174" spans="1:29">
+        <v>1196.0937521965841</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -15398,7 +15416,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q174">
-        <v>726929.5578420205</v>
+        <v>726929.55784202053</v>
       </c>
       <c r="R174">
         <v>0.8</v>
@@ -15407,28 +15425,28 @@
         <v>0</v>
       </c>
       <c r="T174">
-        <v>581543.6462736165</v>
+        <v>581543.64627361647</v>
       </c>
       <c r="X174">
         <v>0</v>
       </c>
       <c r="Y174">
-        <v>156301.8852278474</v>
+        <v>156301.88522784741</v>
       </c>
       <c r="Z174">
-        <v>151476.1360834788</v>
+        <v>151476.13608347881</v>
       </c>
       <c r="AA174">
         <v>121551.9142851358</v>
       </c>
       <c r="AB174">
-        <v>96599.81638622686</v>
+        <v>96599.816386226856</v>
       </c>
       <c r="AC174">
-        <v>55613.89429092751</v>
-      </c>
-    </row>
-    <row r="175" spans="1:29">
+        <v>55613.894290927507</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -15478,7 +15496,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q175">
-        <v>836434.4952884805</v>
+        <v>836434.49528848054</v>
       </c>
       <c r="R175">
         <v>0.8</v>
@@ -15487,7 +15505,7 @@
         <v>0</v>
       </c>
       <c r="T175">
-        <v>669147.5962307844</v>
+        <v>669147.59623078443</v>
       </c>
       <c r="X175">
         <v>0</v>
@@ -15505,10 +15523,10 @@
         <v>111151.6484538564</v>
       </c>
       <c r="AC175">
-        <v>63991.59189557708</v>
-      </c>
-    </row>
-    <row r="176" spans="1:29">
+        <v>63991.591895577083</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -15567,7 +15585,7 @@
         <v>0</v>
       </c>
       <c r="T176">
-        <v>449334.1742838585</v>
+        <v>449334.17428385851</v>
       </c>
       <c r="U176" t="s">
         <v>334</v>
@@ -15585,16 +15603,16 @@
         <v>117039.2024174149</v>
       </c>
       <c r="AA176">
-        <v>93918.02212595462</v>
+        <v>93918.022125954623</v>
       </c>
       <c r="AB176">
-        <v>74638.59163453955</v>
+        <v>74638.591634539553</v>
       </c>
       <c r="AC176">
-        <v>42970.50346959903</v>
-      </c>
-    </row>
-    <row r="177" spans="1:29">
+        <v>42970.503469599033</v>
+      </c>
+    </row>
+    <row r="177" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -15644,7 +15662,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q177">
-        <v>359483.7567895773</v>
+        <v>359483.75678957731</v>
       </c>
       <c r="R177">
         <v>0.8</v>
@@ -15653,7 +15671,7 @@
         <v>0</v>
       </c>
       <c r="T177">
-        <v>287587.0054316618</v>
+        <v>287587.00543166179</v>
       </c>
       <c r="U177" t="s">
         <v>334</v>
@@ -15665,22 +15683,22 @@
         <v>0</v>
       </c>
       <c r="Y177">
-        <v>77294.95697189812</v>
+        <v>77294.956971898122</v>
       </c>
       <c r="Z177">
-        <v>74908.51056450261</v>
+        <v>74908.510564502605</v>
       </c>
       <c r="AA177">
-        <v>60110.27935347964</v>
+        <v>60110.279353479636</v>
       </c>
       <c r="AB177">
-        <v>47770.88030756758</v>
+        <v>47770.880307567582</v>
       </c>
       <c r="AC177">
-        <v>27502.37823421379</v>
-      </c>
-    </row>
-    <row r="178" spans="1:29">
+        <v>27502.378234213789</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -15730,7 +15748,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q178">
-        <v>425733.086068776</v>
+        <v>425733.08606877603</v>
       </c>
       <c r="R178">
         <v>0.8</v>
@@ -15739,28 +15757,28 @@
         <v>0</v>
       </c>
       <c r="T178">
-        <v>340586.4688550208</v>
+        <v>340586.46885502082</v>
       </c>
       <c r="X178">
         <v>0</v>
       </c>
       <c r="Y178">
-        <v>91539.65915756652</v>
+        <v>91539.659157566522</v>
       </c>
       <c r="Z178">
-        <v>88713.41409205459</v>
+        <v>88713.414092054591</v>
       </c>
       <c r="AA178">
-        <v>71188.01406260116</v>
+        <v>71188.014062601156</v>
       </c>
       <c r="AB178">
-        <v>56574.58484130466</v>
+        <v>56574.584841304662</v>
       </c>
       <c r="AC178">
-        <v>32570.79670149383</v>
-      </c>
-    </row>
-    <row r="179" spans="1:29">
+        <v>32570.796701493829</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -15810,7 +15828,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q179">
-        <v>2315840.307260729</v>
+        <v>2315840.3072607289</v>
       </c>
       <c r="R179">
         <v>0.8</v>
@@ -15819,28 +15837,28 @@
         <v>0</v>
       </c>
       <c r="T179">
-        <v>1852672.245808584</v>
+        <v>1852672.2458085839</v>
       </c>
       <c r="X179">
         <v>0</v>
       </c>
       <c r="Y179">
-        <v>497943.9919681384</v>
+        <v>497943.99196813838</v>
       </c>
       <c r="Z179">
-        <v>482570.1991973037</v>
+        <v>482570.19919730368</v>
       </c>
       <c r="AA179">
-        <v>387238.10235736</v>
+        <v>387238.10235736001</v>
       </c>
       <c r="AB179">
-        <v>307746.1165911584</v>
+        <v>307746.11659115838</v>
       </c>
       <c r="AC179">
         <v>177173.8356946233</v>
       </c>
     </row>
-    <row r="180" spans="1:29">
+    <row r="180" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -15890,7 +15908,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q180">
-        <v>978847.5839930716</v>
+        <v>978847.58399307157</v>
       </c>
       <c r="R180">
         <v>0.8</v>
@@ -15899,28 +15917,28 @@
         <v>0</v>
       </c>
       <c r="T180">
-        <v>783078.0671944573</v>
+        <v>783078.06719445728</v>
       </c>
       <c r="X180">
         <v>0</v>
       </c>
       <c r="Y180">
-        <v>210468.4299576803</v>
+        <v>210468.42995768029</v>
       </c>
       <c r="Z180">
-        <v>203970.3135446614</v>
+        <v>203970.31354466139</v>
       </c>
       <c r="AA180">
-        <v>163675.8284818507</v>
+        <v>163675.82848185071</v>
       </c>
       <c r="AB180">
         <v>130076.5608768682</v>
       </c>
       <c r="AC180">
-        <v>74886.93433339668</v>
-      </c>
-    </row>
-    <row r="181" spans="1:29">
+        <v>74886.934333396683</v>
+      </c>
+    </row>
+    <row r="181" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -15970,7 +15988,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q181">
-        <v>1371759.124156304</v>
+        <v>1371759.1241563039</v>
       </c>
       <c r="R181">
         <v>0.8</v>
@@ -15979,28 +15997,28 @@
         <v>0</v>
       </c>
       <c r="T181">
-        <v>1097407.299325043</v>
+        <v>1097407.2993250431</v>
       </c>
       <c r="X181">
         <v>0</v>
       </c>
       <c r="Y181">
-        <v>294950.913566686</v>
+        <v>294950.91356668598</v>
       </c>
       <c r="Z181">
-        <v>285844.4391521243</v>
+        <v>285844.43915212428</v>
       </c>
       <c r="AA181">
-        <v>229375.6605169392</v>
+        <v>229375.66051693921</v>
       </c>
       <c r="AB181">
-        <v>182289.5741273852</v>
+        <v>182289.57412738519</v>
       </c>
       <c r="AC181">
         <v>104946.7119619085</v>
       </c>
     </row>
-    <row r="182" spans="1:29">
+    <row r="182" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -16050,7 +16068,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q182">
-        <v>2409197.111899764</v>
+        <v>2409197.1118997638</v>
       </c>
       <c r="R182">
         <v>0.8</v>
@@ -16065,22 +16083,22 @@
         <v>0</v>
       </c>
       <c r="Y182">
-        <v>518017.249970257</v>
+        <v>518017.24997025699</v>
       </c>
       <c r="Z182">
-        <v>502023.7045490483</v>
+        <v>502023.70454904833</v>
       </c>
       <c r="AA182">
-        <v>402848.5534567829</v>
+        <v>402848.55345678289</v>
       </c>
       <c r="AB182">
-        <v>320152.0644429796</v>
+        <v>320152.06444297958</v>
       </c>
       <c r="AC182">
         <v>184316.1171007432</v>
       </c>
     </row>
-    <row r="183" spans="1:29">
+    <row r="183" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -16127,7 +16145,7 @@
         <v>21.6</v>
       </c>
       <c r="P183">
-        <v>74.203</v>
+        <v>74.203000000000003</v>
       </c>
       <c r="Q183">
         <v>291.0933520208078</v>
@@ -16139,28 +16157,28 @@
         <v>0</v>
       </c>
       <c r="T183">
-        <v>232.8746816166463</v>
+        <v>232.87468161664631</v>
       </c>
       <c r="X183">
         <v>0</v>
       </c>
       <c r="Y183">
-        <v>62.58988812232836</v>
+        <v>62.589888122328361</v>
       </c>
       <c r="Z183">
-        <v>60.65745398302062</v>
+        <v>60.657453983020623</v>
       </c>
       <c r="AA183">
-        <v>48.67452945350678</v>
+        <v>48.674529453506779</v>
       </c>
       <c r="AB183">
-        <v>38.68265370847996</v>
+        <v>38.682653708479961</v>
       </c>
       <c r="AC183">
-        <v>22.27015634931051</v>
-      </c>
-    </row>
-    <row r="184" spans="1:29">
+        <v>22.270156349310511</v>
+      </c>
+    </row>
+    <row r="184" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -16210,7 +16228,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q184">
-        <v>882243.078632012</v>
+        <v>882243.07863201201</v>
       </c>
       <c r="R184">
         <v>0.8</v>
@@ -16219,19 +16237,19 @@
         <v>0</v>
       </c>
       <c r="T184">
-        <v>705794.4629056096</v>
+        <v>705794.46290560963</v>
       </c>
       <c r="X184">
         <v>0</v>
       </c>
       <c r="Y184">
-        <v>189696.8625526323</v>
+        <v>189696.86255263229</v>
       </c>
       <c r="Z184">
         <v>183840.0587730853</v>
       </c>
       <c r="AA184">
-        <v>147522.3203069122</v>
+        <v>147522.32030691221</v>
       </c>
       <c r="AB184">
         <v>117239.0343527526</v>
@@ -16240,7 +16258,7 @@
         <v>67496.18692022725</v>
       </c>
     </row>
-    <row r="185" spans="1:29">
+    <row r="185" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -16290,7 +16308,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q185">
-        <v>2156486.458500033</v>
+        <v>2156486.4585000328</v>
       </c>
       <c r="R185">
         <v>0.8</v>
@@ -16299,28 +16317,28 @@
         <v>0</v>
       </c>
       <c r="T185">
-        <v>1725189.166800026</v>
+        <v>1725189.1668000261</v>
       </c>
       <c r="X185">
         <v>0</v>
       </c>
       <c r="Y185">
-        <v>463680.2772644048</v>
+        <v>463680.27726440481</v>
       </c>
       <c r="Z185">
-        <v>449364.3609975764</v>
+        <v>449364.36099757638</v>
       </c>
       <c r="AA185">
-        <v>360592.1018520728</v>
+        <v>360592.10185207281</v>
       </c>
       <c r="AB185">
         <v>286569.9897372449</v>
       </c>
       <c r="AC185">
-        <v>164982.4369487274</v>
-      </c>
-    </row>
-    <row r="186" spans="1:29">
+        <v>164982.43694872741</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -16364,7 +16382,7 @@
         <v>0</v>
       </c>
       <c r="O186">
-        <v>53257.6</v>
+        <v>53257.599999999999</v>
       </c>
       <c r="P186">
         <v>53.1145</v>
@@ -16379,7 +16397,7 @@
         <v>0</v>
       </c>
       <c r="T186">
-        <v>802155.3436443909</v>
+        <v>802155.34364439093</v>
       </c>
       <c r="X186">
         <v>0</v>
@@ -16394,13 +16412,13 @@
         <v>167663.2840867652</v>
       </c>
       <c r="AB186">
-        <v>133245.4741889153</v>
+        <v>133245.47418891531</v>
       </c>
       <c r="AC186">
-        <v>76711.32299733238</v>
-      </c>
-    </row>
-    <row r="187" spans="1:29">
+        <v>76711.322997332376</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -16444,13 +16462,13 @@
         <v>0</v>
       </c>
       <c r="O187">
-        <v>81533.90000000001</v>
+        <v>81533.900000000009</v>
       </c>
       <c r="P187">
         <v>53.1145</v>
       </c>
       <c r="Q187">
-        <v>1535059.164634893</v>
+        <v>1535059.1646348929</v>
       </c>
       <c r="R187">
         <v>0.8</v>
@@ -16459,28 +16477,28 @@
         <v>0</v>
       </c>
       <c r="T187">
-        <v>1228047.331707914</v>
+        <v>1228047.3317079139</v>
       </c>
       <c r="X187">
         <v>0</v>
       </c>
       <c r="Y187">
-        <v>330063.1247971093</v>
+        <v>330063.12479710928</v>
       </c>
       <c r="Z187">
-        <v>319872.5769367596</v>
+        <v>319872.57693675958</v>
       </c>
       <c r="AA187">
-        <v>256681.5147209395</v>
+        <v>256681.51472093951</v>
       </c>
       <c r="AB187">
-        <v>203990.1003419532</v>
+        <v>203990.10034195319</v>
       </c>
       <c r="AC187">
         <v>117440.0149111526</v>
       </c>
     </row>
-    <row r="188" spans="1:29">
+    <row r="188" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -16530,7 +16548,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q188">
-        <v>3894574.927750426</v>
+        <v>3894574.9277504259</v>
       </c>
       <c r="R188">
         <v>0.8</v>
@@ -16539,28 +16557,28 @@
         <v>0</v>
       </c>
       <c r="T188">
-        <v>3115659.942200341</v>
+        <v>3115659.9422003408</v>
       </c>
       <c r="X188">
         <v>0</v>
       </c>
       <c r="Y188">
-        <v>837398.0625792503</v>
+        <v>837398.06257925031</v>
       </c>
       <c r="Z188">
-        <v>811543.7807956567</v>
+        <v>811543.78079565673</v>
       </c>
       <c r="AA188">
-        <v>651222.711592969</v>
+        <v>651222.71159296902</v>
       </c>
       <c r="AB188">
-        <v>517540.1369562339</v>
+        <v>517540.13695623388</v>
       </c>
       <c r="AC188">
-        <v>297955.2502762305</v>
-      </c>
-    </row>
-    <row r="189" spans="1:29">
+        <v>297955.25027623051</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -16619,7 +16637,7 @@
         <v>0</v>
       </c>
       <c r="T189">
-        <v>3791246.458123488</v>
+        <v>3791246.4581234879</v>
       </c>
       <c r="X189">
         <v>0</v>
@@ -16628,19 +16646,19 @@
         <v>1018975.914473824</v>
       </c>
       <c r="Z189">
-        <v>987515.4996475024</v>
+        <v>987515.49964750244</v>
       </c>
       <c r="AA189">
-        <v>792431.0883018895</v>
+        <v>792431.08830188948</v>
       </c>
       <c r="AB189">
-        <v>629761.3499457766</v>
+        <v>629761.34994577663</v>
       </c>
       <c r="AC189">
         <v>362562.6057544956</v>
       </c>
     </row>
-    <row r="190" spans="1:29">
+    <row r="190" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -16684,13 +16702,13 @@
         <v>0</v>
       </c>
       <c r="O190">
-        <v>94566.40000000001</v>
+        <v>94566.400000000009</v>
       </c>
       <c r="P190">
         <v>53.1145</v>
       </c>
       <c r="Q190">
-        <v>1780425.307590206</v>
+        <v>1780425.3075902059</v>
       </c>
       <c r="R190">
         <v>0.8</v>
@@ -16705,22 +16723,22 @@
         <v>0</v>
       </c>
       <c r="Y190">
-        <v>382820.9062097282</v>
+        <v>382820.90620972821</v>
       </c>
       <c r="Z190">
-        <v>371001.4860031519</v>
+        <v>371001.48600315192</v>
       </c>
       <c r="AA190">
-        <v>297709.8702957451</v>
+        <v>297709.87029574509</v>
       </c>
       <c r="AB190">
-        <v>236596.1817719658</v>
+        <v>236596.18177196581</v>
       </c>
       <c r="AC190">
-        <v>136211.801791574</v>
-      </c>
-    </row>
-    <row r="191" spans="1:29">
+        <v>136211.80179157399</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -16770,7 +16788,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q191">
-        <v>954807.0677498612</v>
+        <v>954807.06774986116</v>
       </c>
       <c r="R191">
         <v>0.8</v>
@@ -16779,16 +16797,16 @@
         <v>0</v>
       </c>
       <c r="T191">
-        <v>763845.6541998889</v>
+        <v>763845.65419988893</v>
       </c>
       <c r="X191">
         <v>0</v>
       </c>
       <c r="Y191">
-        <v>205299.3211078224</v>
+        <v>205299.32110782241</v>
       </c>
       <c r="Z191">
-        <v>198960.7985638921</v>
+        <v>198960.79856389211</v>
       </c>
       <c r="AA191">
         <v>159655.9468602532</v>
@@ -16797,10 +16815,10 @@
         <v>126881.8779397508</v>
       </c>
       <c r="AC191">
-        <v>73047.70972817049</v>
-      </c>
-    </row>
-    <row r="192" spans="1:29">
+        <v>73047.709728170492</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -16850,7 +16868,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q192">
-        <v>985167.8920068907</v>
+        <v>985167.89200689073</v>
       </c>
       <c r="R192">
         <v>0.8</v>
@@ -16859,28 +16877,28 @@
         <v>0</v>
       </c>
       <c r="T192">
-        <v>788134.3136055126</v>
+        <v>788134.31360551261</v>
       </c>
       <c r="X192">
         <v>0</v>
       </c>
       <c r="Y192">
-        <v>211827.4007783376</v>
+        <v>211827.40077833759</v>
       </c>
       <c r="Z192">
-        <v>205287.3267634289</v>
+        <v>205287.32676342889</v>
       </c>
       <c r="AA192">
-        <v>164732.6647731579</v>
+        <v>164732.66477315791</v>
       </c>
       <c r="AB192">
         <v>130916.4505017334</v>
       </c>
       <c r="AC192">
-        <v>75370.47078885476</v>
-      </c>
-    </row>
-    <row r="193" spans="1:29">
+        <v>75370.470788854756</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -16924,7 +16942,7 @@
         <v>0</v>
       </c>
       <c r="O193">
-        <v>98695.39999999999</v>
+        <v>98695.4</v>
       </c>
       <c r="P193">
         <v>53.1145</v>
@@ -16939,28 +16957,28 @@
         <v>0</v>
       </c>
       <c r="T193">
-        <v>1486530.420130096</v>
+        <v>1486530.4201300959</v>
       </c>
       <c r="X193">
         <v>0</v>
       </c>
       <c r="Y193">
-        <v>399535.8020050632</v>
+        <v>399535.80200506322</v>
       </c>
       <c r="Z193">
-        <v>387200.3170436379</v>
+        <v>387200.31704363792</v>
       </c>
       <c r="AA193">
-        <v>310708.6103815592</v>
+        <v>310708.61038155918</v>
       </c>
       <c r="AB193">
         <v>246926.5489482191</v>
       </c>
       <c r="AC193">
-        <v>142159.141751617</v>
-      </c>
-    </row>
-    <row r="194" spans="1:29">
+        <v>142159.14175161699</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -17010,7 +17028,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q194">
-        <v>4402842.914834932</v>
+        <v>4402842.9148349324</v>
       </c>
       <c r="R194">
         <v>0.8</v>
@@ -17019,7 +17037,7 @@
         <v>0</v>
       </c>
       <c r="T194">
-        <v>3522274.331867946</v>
+        <v>3522274.3318679458</v>
       </c>
       <c r="X194">
         <v>0</v>
@@ -17028,19 +17046,19 @@
         <v>946684.0913632618</v>
       </c>
       <c r="Z194">
-        <v>917455.6534770266</v>
+        <v>917455.65347702662</v>
       </c>
       <c r="AA194">
-        <v>736211.6161346675</v>
+        <v>736211.61613466754</v>
       </c>
       <c r="AB194">
-        <v>585082.5744561146</v>
+        <v>585082.57445611455</v>
       </c>
       <c r="AC194">
-        <v>336840.3964368759</v>
-      </c>
-    </row>
-    <row r="195" spans="1:29">
+        <v>336840.39643687592</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -17105,22 +17123,22 @@
         <v>0</v>
       </c>
       <c r="Y195">
-        <v>271775.9473644255</v>
+        <v>271775.94736442552</v>
       </c>
       <c r="Z195">
-        <v>263384.9894208154</v>
+        <v>263384.98942081537</v>
       </c>
       <c r="AA195">
-        <v>211353.09155514</v>
+        <v>211353.09155514001</v>
       </c>
       <c r="AB195">
-        <v>167966.6663989727</v>
+        <v>167966.66639897271</v>
       </c>
       <c r="AC195">
-        <v>96700.80936969384</v>
-      </c>
-    </row>
-    <row r="196" spans="1:29">
+        <v>96700.809369693845</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -17170,7 +17188,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q196">
-        <v>1230392.830582986</v>
+        <v>1230392.8305829859</v>
       </c>
       <c r="R196">
         <v>0.8</v>
@@ -17179,28 +17197,28 @@
         <v>0</v>
       </c>
       <c r="T196">
-        <v>984314.2644663887</v>
+        <v>984314.26446638873</v>
       </c>
       <c r="X196">
         <v>0</v>
       </c>
       <c r="Y196">
-        <v>264554.8209125682</v>
+        <v>264554.82091256819</v>
       </c>
       <c r="Z196">
-        <v>256386.8119420024</v>
+        <v>256386.81194200239</v>
       </c>
       <c r="AA196">
-        <v>205737.4091707673</v>
+        <v>205737.40917076729</v>
       </c>
       <c r="AB196">
-        <v>163503.7676416463</v>
+        <v>163503.76764164629</v>
       </c>
       <c r="AC196">
-        <v>94131.45479940451</v>
-      </c>
-    </row>
-    <row r="197" spans="1:29">
+        <v>94131.454799404513</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -17250,7 +17268,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q197">
-        <v>763800.8453435503</v>
+        <v>763800.84534355032</v>
       </c>
       <c r="R197">
         <v>0.8</v>
@@ -17259,7 +17277,7 @@
         <v>0</v>
       </c>
       <c r="T197">
-        <v>611040.6762748403</v>
+        <v>611040.67627484025</v>
       </c>
       <c r="X197">
         <v>0</v>
@@ -17268,7 +17286,7 @@
         <v>164229.8222405827</v>
       </c>
       <c r="Z197">
-        <v>159159.3016707125</v>
+        <v>159159.30167071251</v>
       </c>
       <c r="AA197">
         <v>127717.2648746389</v>
@@ -17277,10 +17295,10 @@
         <v>101499.5478170757</v>
       </c>
       <c r="AC197">
-        <v>58434.73967183044</v>
-      </c>
-    </row>
-    <row r="198" spans="1:29">
+        <v>58434.739671830437</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -17330,7 +17348,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q198">
-        <v>3346464.713025633</v>
+        <v>3346464.7130256328</v>
       </c>
       <c r="R198">
         <v>0.8</v>
@@ -17339,19 +17357,19 @@
         <v>0</v>
       </c>
       <c r="T198">
-        <v>2677171.770420507</v>
+        <v>2677171.7704205071</v>
       </c>
       <c r="X198">
         <v>0</v>
       </c>
       <c r="Y198">
-        <v>719545.2954852157</v>
+        <v>719545.29548521573</v>
       </c>
       <c r="Z198">
-        <v>697329.6639273466</v>
+        <v>697329.66392734658</v>
       </c>
       <c r="AA198">
-        <v>559571.6772935572</v>
+        <v>559571.67729355721</v>
       </c>
       <c r="AB198">
         <v>444703.1673618058</v>
@@ -17360,7 +17378,7 @@
         <v>256021.9663525814</v>
       </c>
     </row>
-    <row r="199" spans="1:29">
+    <row r="199" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -17410,7 +17428,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q199">
-        <v>1913110.355929172</v>
+        <v>1913110.3559291719</v>
       </c>
       <c r="R199">
         <v>0.8</v>
@@ -17419,28 +17437,28 @@
         <v>0</v>
       </c>
       <c r="T199">
-        <v>1530488.284743338</v>
+        <v>1530488.2847433379</v>
       </c>
       <c r="X199">
         <v>0</v>
       </c>
       <c r="Y199">
-        <v>411350.3874685375</v>
+        <v>411350.38746853749</v>
       </c>
       <c r="Z199">
-        <v>398650.1325901767</v>
+        <v>398650.13259017671</v>
       </c>
       <c r="AA199">
-        <v>319896.5064678873</v>
+        <v>319896.50646788732</v>
       </c>
       <c r="AB199">
-        <v>254228.3597023716</v>
+        <v>254228.35970237161</v>
       </c>
       <c r="AC199">
-        <v>146362.8985143648</v>
-      </c>
-    </row>
-    <row r="200" spans="1:29">
+        <v>146362.89851436479</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -17484,7 +17502,7 @@
         <v>0</v>
       </c>
       <c r="O200">
-        <v>19119.4</v>
+        <v>19119.400000000001</v>
       </c>
       <c r="P200">
         <v>53.1145</v>
@@ -17499,28 +17517,28 @@
         <v>0</v>
       </c>
       <c r="T200">
-        <v>287972.587523181</v>
+        <v>287972.58752318099</v>
       </c>
       <c r="X200">
         <v>0</v>
       </c>
       <c r="Y200">
-        <v>77398.5901354633</v>
+        <v>77398.590135463295</v>
       </c>
       <c r="Z200">
-        <v>75008.94410159065</v>
+        <v>75008.944101590649</v>
       </c>
       <c r="AA200">
-        <v>60190.87217164309</v>
+        <v>60190.872171643088</v>
       </c>
       <c r="AB200">
-        <v>47834.92908444143</v>
+        <v>47834.929084441428</v>
       </c>
       <c r="AC200">
-        <v>27539.25203004259</v>
-      </c>
-    </row>
-    <row r="201" spans="1:29">
+        <v>27539.252030042589</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -17570,7 +17588,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q201">
-        <v>2362394.449726534</v>
+        <v>2362394.4497265341</v>
       </c>
       <c r="R201">
         <v>0.8</v>
@@ -17585,22 +17603,22 @@
         <v>0</v>
       </c>
       <c r="Y201">
-        <v>507953.903044216</v>
+        <v>507953.90304421599</v>
       </c>
       <c r="Z201">
-        <v>492271.0588518954</v>
+        <v>492271.05885189539</v>
       </c>
       <c r="AA201">
-        <v>395022.5500711387</v>
+        <v>395022.55007113871</v>
       </c>
       <c r="AB201">
         <v>313932.5779417812</v>
       </c>
       <c r="AC201">
-        <v>180735.4698721961</v>
-      </c>
-    </row>
-    <row r="202" spans="1:29">
+        <v>180735.46987219609</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -17647,10 +17665,10 @@
         <v>472.1</v>
       </c>
       <c r="P202">
-        <v>74.203</v>
+        <v>74.203000000000003</v>
       </c>
       <c r="Q202">
-        <v>6362.276457825155</v>
+        <v>6362.2764578251554</v>
       </c>
       <c r="R202">
         <v>0.8</v>
@@ -17659,28 +17677,28 @@
         <v>0</v>
       </c>
       <c r="T202">
-        <v>5089.821166260124</v>
+        <v>5089.8211662601243</v>
       </c>
       <c r="X202">
         <v>0</v>
       </c>
       <c r="Y202">
-        <v>1367.994730673667</v>
+        <v>1367.9947306736669</v>
       </c>
       <c r="Z202">
         <v>1325.758519693705</v>
       </c>
       <c r="AA202">
-        <v>1063.853951620396</v>
+        <v>1063.8539516203959</v>
       </c>
       <c r="AB202">
-        <v>845.4667044339532</v>
+        <v>845.46670443395317</v>
       </c>
       <c r="AC202">
-        <v>486.7472598384024</v>
-      </c>
-    </row>
-    <row r="203" spans="1:29">
+        <v>486.74725983840239</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -17730,7 +17748,7 @@
         <v>53.1145</v>
       </c>
       <c r="Q203">
-        <v>522235.9242767983</v>
+        <v>522235.92427679832</v>
       </c>
       <c r="R203">
         <v>0.8</v>
@@ -17739,7 +17757,7 @@
         <v>0</v>
       </c>
       <c r="T203">
-        <v>417788.7394214387</v>
+        <v>417788.73942143872</v>
       </c>
       <c r="X203">
         <v>0</v>
@@ -17751,13 +17769,13 @@
         <v>108822.4836644012</v>
       </c>
       <c r="AA203">
-        <v>87324.52218995825</v>
+        <v>87324.522189958254</v>
       </c>
       <c r="AB203">
-        <v>69398.60107654853</v>
+        <v>69398.601076548526</v>
       </c>
       <c r="AC203">
-        <v>39953.76604835562</v>
+        <v>39953.766048355617</v>
       </c>
     </row>
   </sheetData>
